--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\Elin\Package\Mod_CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1F7B9F-9A77-4AE5-B70E-DDE428F21BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABE2C7-DC87-4781-A98F-EAFB013CA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,9 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>added adventurer {0} to {0}</t>
-  </si>
-  <si>
     <t>cwl_log_sound_default_meta</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,15 +288,6 @@
 {0}</t>
   </si>
   <si>
-    <t>migration failed, cannot reorder sheet, this does not affect the import data
-{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet has misaligned columns, CWL imported by column names instead
-if this is causing issues, please update the sheet or disable {1} in the config file</t>
-  </si>
-  <si>
     <t>failed to add adventurer {0}, cannot be generated</t>
   </si>
   <si>
@@ -307,13 +295,7 @@
 {1}</t>
   </si>
   <si>
-    <t>skipped adventurer {0}, already exists</t>
-  </si>
-  <si>
     <t>loaded {0} sound {1} {2}Hz x{3}, {4}s</t>
-  </si>
-  <si>
-    <t>failed to add thing:{0} to {0}, cannot be generated</t>
   </si>
   <si>
     <t>sheet has misaligned columns, CWL imported by column names instead
@@ -326,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skipped adventurer {0}, already exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maybe {0, 2}: {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,6 +330,72 @@
   <si>
     <t>failed to load custom portrait for religion {0}
 {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_sprite_creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create sprite for {0}
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to add thing:{0} to {1}, cannot be generated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added adventurer:{0} to {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_custom_ele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom element id: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_qualify_ele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to qualify custom element id: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped adventurer:{0}, already exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_ele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ele_safety_cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ele_safety_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create element id: {0}, type: {1}, it may be missing from current game
+CWL caught the exception and kept the game going
+if this is causing issues,  please check for outdated mods or disable {2} in the config file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;MISSING ELEMENT:{0}:{1}:{2}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This element is missing or modified from your current game. 
+CWL kept the game going by replacing it with a safety cone.
+You should report the relevant information to mod author or CWL.
+If you see this and do not want to bunk your game, you may press Alt + F4 to shutdown Elin without saving.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,9 +420,32 @@
     </font>
     <font>
       <sz val="15.8"/>
-      <color rgb="FF89CA78"/>
       <name val="Cascadia Code"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <color rgb="FFFFC000"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,12 +468,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,18 +766,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.375" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="87" customWidth="1"/>
-    <col min="4" max="4" width="156.125" customWidth="1"/>
+    <col min="1" max="1" width="52.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="87" style="2" customWidth="1"/>
+    <col min="4" max="4" width="156.125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -742,11 +820,11 @@
         <v>19</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
+      <c r="C4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -762,86 +840,86 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
+      <c r="A7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -850,10 +928,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -862,10 +940,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -874,46 +952,46 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -922,10 +1000,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -933,33 +1011,33 @@
         <v>15</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -968,214 +1046,323 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>54</v>
+      <c r="D31" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>60</v>
+      <c r="D34" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>62</v>
+      <c r="D35" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>66</v>
+      <c r="C36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="93" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="43" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="186" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+    </row>
+    <row r="49" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+    </row>
+    <row r="52" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D33">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\Steam\steamapps\common\Elin\Package\Mod_CustomWhateverLoader\LangMod\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABE2C7-DC87-4781-A98F-EAFB013CA944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176673E7-8D43-4568-BE6C-3471F34DFACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -312,14 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>added equipment:{0}, {1} to {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added thing:{0}, x{1} to {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>migration cancelled, sheet has already been migrated for this version: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>added adventurer:{0} to {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_custom_ele</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -363,10 +351,6 @@
   </si>
   <si>
     <t>failed to qualify custom element id: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skipped adventurer:{0}, already exists</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,6 +380,65 @@
 CWL kept the game going by replacing it with a safety cone.
 You should report the relevant information to mod author or CWL.
 If you see this and do not want to bunk your game, you may press Alt + F4 to shutdown Elin without saving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_rel_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to relocate a missing file {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_rel_fallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using fallback {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added adventurer: {0} to {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added equipment: {0}, {1} to {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added thing: {0}, x{1} to {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped adventurer: {0}, already exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create quest id: {0}, meta: {1}, it may be missing from current game
+CWL caught the exception and kept the game going
+if this is causing issues,  please check for outdated mods or disable {2} in the config file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_mat_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added material color {0}, main {1}, alt {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_mat_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to add material color {0}, {1}
+{2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +490,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -468,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -928,10 +980,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -940,10 +992,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -952,10 +1004,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1000,10 +1052,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -1046,10 +1098,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1238,130 +1290,173 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B44"/>
       <c r="C44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="186" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47"/>
+      <c r="C47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="6" t="s">
+    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="186" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B48"/>
+      <c r="C48" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176673E7-8D43-4568-BE6C-3471F34DFACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651835FF-ECD2-4882-A806-B98F9A666ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,14 @@
   <si>
     <t>failed to add material color {0}, {1}
 {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_post_cleanup_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed invalid quest id: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D46" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1433,7 +1441,15 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651835FF-ECD2-4882-A806-B98F9A666ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88505F91-3B23-4350-8950-2307589BEF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +447,16 @@
   </si>
   <si>
     <t>removed invalid quest id: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_decltype_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to query decltype from mod: {0} -&gt; {1}
+it might've failed to load or is missing (transitive) dependencies
+this is not an exception from CWL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1451,8 +1461,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+    <row r="53" spans="1:4" ht="93" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88505F91-3B23-4350-8950-2307589BEF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA24A9-6988-4646-9212-1C2B4888D8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,22 @@
     <t>failed to query decltype from mod: {0} -&gt; {1}
 it might've failed to load or is missing (transitive) dependencies
 this is not an exception from CWL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_custom_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom trait id: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_qualify_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,7 +855,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="A54" sqref="A54:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1473,10 +1489,26 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AA24A9-6988-4646-9212-1C2B4888D8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103EBF94-F2D6-432A-8225-E2A7E1CD9157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,12 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>failed to query decltype from mod: {0} -&gt; {1}
-it might've failed to load or is missing (transitive) dependencies
-this is not an exception from CWL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_custom_trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,6 +467,20 @@
   </si>
   <si>
     <t>failed to qualify custom trait id: {0}, on card: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to query decltype from mod: {0}, it might've failed to load or is missing (transitive) dependencies
+this is not an exception from CWL and you may ignore it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_processor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one of the {0} {1} processors failed, the exception has been ignored
+{2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -571,6 +579,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:D55"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1477,47 +1488,59 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="93" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
+      <c r="A57" s="1"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="1"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103EBF94-F2D6-432A-8225-E2A7E1CD9157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B70843-EF84-4CC0-BAC4-5464F281D465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,14 @@
   <si>
     <t>one of the {0} {1} processors failed, the exception has been ignored
 {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_ele_gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto gained ability id: {0} on {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +874,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1522,7 +1530,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -1533,9 +1541,15 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B70843-EF84-4CC0-BAC4-5464F281D465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD940349-E1C7-4880-A9F9-E33DA59B0352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,10 +403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>added adventurer: {0} to {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>added equipment: {0}, {1} to {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,6 +485,18 @@
   </si>
   <si>
     <t>auto gained ability id: {0} on {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_empty_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added adventurer: {0} to {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -587,9 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,15 +878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="87" style="2" customWidth="1"/>
+    <col min="2" max="2" width="0.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="91.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="156.125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
@@ -1033,10 +1038,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1045,10 +1050,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1057,10 +1062,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1151,10 +1156,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1416,7 +1421,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="186" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="139.5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>83</v>
       </c>
@@ -1457,104 +1462,110 @@
       </c>
       <c r="B49"/>
       <c r="C49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D51" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="D52" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD940349-E1C7-4880-A9F9-E33DA59B0352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D80C4CF-01B4-423B-B580-28C1CFCF69CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,127 +376,136 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>cwl_warn_rel_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to relocate a missing file {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_rel_fallback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using fallback {0}:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added equipment: {0}, {1} to {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added thing: {0}, x{1} to {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped adventurer: {0}, already exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create quest id: {0}, meta: {1}, it may be missing from current game
+CWL caught the exception and kept the game going
+if this is causing issues,  please check for outdated mods or disable {2} in the config file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_mat_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added material color {0}, main {1}, alt {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_mat_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to add material color {0}, {1}
+{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_post_cleanup_quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed invalid quest id: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_decltype_missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_custom_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom trait id: {0}, type: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_qualify_trait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to query decltype from mod: {0}, it might've failed to load or is missing (transitive) dependencies
+this is not an exception from CWL and you may ignore it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_processor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one of the {0} {1} processors failed, the exception has been ignored
+{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_ele_gain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto gained ability id: {0} on {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_empty_default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added adventurer: {0} to {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>This element is missing or modified from your current game. 
 CWL kept the game going by replacing it with a safety cone.
 You should report the relevant information to mod author or CWL.
-If you see this and do not want to bunk your game, you may press Alt + F4 to shutdown Elin without saving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_rel_missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to relocate a missing file {0}:{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_rel_fallback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>using fallback {0}:{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_deserialize_quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added equipment: {0}, {1} to {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added thing: {0}, x{1} to {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skipped adventurer: {0}, already exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to create quest id: {0}, meta: {1}, it may be missing from current game
-CWL caught the exception and kept the game going
-if this is causing issues,  please check for outdated mods or disable {2} in the config file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_mat_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added material color {0}, main {1}, alt {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_mat_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to add material color {0}, {1}
-{2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_post_cleanup_quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removed invalid quest id: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_decltype_missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_custom_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualified custom trait id: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_qualify_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to query decltype from mod: {0}, it might've failed to load or is missing (transitive) dependencies
-this is not an exception from CWL and you may ignore it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_processor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>one of the {0} {1} processors failed, the exception has been ignored
-{2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_ele_gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto gained ability id: {0} on {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_empty_default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sheet is missing default entries (3rd row) and might be incompatible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added adventurer: {0} to {1}</t>
+Using this element will let CWL purge it from your save.
+You may also keep the safety cone, CWL will restore it when the responsible mod functions again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_ele_final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this is the last time CWL warns about it, the rest will be silently ignored to reduce log spam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,10 +1047,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1050,10 +1059,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1062,10 +1071,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1156,10 +1165,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1410,168 +1419,180 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45"/>
+      <c r="C45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="139.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="47" spans="1:4" ht="186" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47"/>
       <c r="C47" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B48"/>
       <c r="C48" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49"/>
       <c r="C49" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="D51" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="D52" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="C53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="D53" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="C54" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C55" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="D57" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="C58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="D58" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="C59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
+      <c r="D59" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D33">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D80C4CF-01B4-423B-B580-28C1CFCF69CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B173DEB-BDFB-4457-8048-D35AE188ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,30 @@
   </si>
   <si>
     <t>this is the last time CWL warns about it, the rest will be silently ignored to reduce log spam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_skipped_cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped character: {0}, already exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_added_cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added character: {0} to {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_stock_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to read stock file for merchant id: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1055,548 +1079,580 @@
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>45</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>53</v>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="93" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="93" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>76</v>
+      <c r="C39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="44" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="46" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B44"/>
-      <c r="C44" s="6" t="s">
+      <c r="B46"/>
+      <c r="C46" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="47" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B45"/>
-      <c r="C45" s="6" t="s">
+      <c r="B47"/>
+      <c r="C47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="186" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+    <row r="49" spans="1:4" ht="186" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+    <row r="59" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C61" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D33">
-    <sortCondition ref="A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">
+    <sortCondition ref="A35"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B173DEB-BDFB-4457-8048-D35AE188ABA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF389E-7657-45B3-943B-ED2C6CA683A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,9 +288,6 @@
 {0}</t>
   </si>
   <si>
-    <t>failed to add adventurer {0}, cannot be generated</t>
-  </si>
-  <si>
     <t>failed to merge god_talk, {0}
 {1}</t>
   </si>
@@ -338,44 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_log_custom_ele</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualified custom element id: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_error_qualify_ele</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to qualify custom element id: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_deserialize_ele</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ele_safety_cone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ele_safety_desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to create element id: {0}, type: {1}, it may be missing from current game
-CWL caught the exception and kept the game going
-if this is causing issues,  please check for outdated mods or disable {2} in the config file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;MISSING ELEMENT:{0}:{1}:{2}&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_warn_rel_missing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_warn_deserialize_quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>added equipment: {0}, {1} to {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,12 +360,6 @@
   </si>
   <si>
     <t>skipped adventurer: {0}, already exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to create quest id: {0}, meta: {1}, it may be missing from current game
-CWL caught the exception and kept the game going
-if this is causing issues,  please check for outdated mods or disable {2} in the config file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -431,31 +380,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_log_post_cleanup_quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removed invalid quest id: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_warn_decltype_missing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_custom_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qualified custom trait id: {0}, type: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_qualify_trait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to qualify custom trait id: {0}, on card: {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,43 +418,93 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This element is missing or modified from your current game. 
+    <t>this is the last time CWL warns about it, the rest will be silently ignored to reduce log spam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_skipped_cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped character: {0}, already exists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_added_cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added character: {0} to {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_stock_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to read stock file for merchant id: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_custom_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_qualify_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualified custom {0} id: {1}, type: {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to qualify custom {0} id: {1}, type: {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_deserialize_final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_type_safety_cone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_type_safety_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create {0} id: {1}, type: {2}, it may be missing from current game
+CWL caught the exception and kept the game going
+if this is causing issues,  please check for outdated mods or disable {3} in the config file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Missing {0}:{1}:{2}:{3}&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This class is missing or modified from your current game. 
 CWL kept the game going by replacing it with a safety cone.
 You should report the relevant information to mod author or CWL.
-Using this element will let CWL purge it from your save.
+Using this element(if usable) will let CWL purge it from your save.
 You may also keep the safety cone, CWL will restore it when the responsible mod functions again.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_warn_deserialize_ele_final</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>this is the last time CWL warns about it, the rest will be silently ignored to reduce log spam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_skipped_cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skipped character: {0}, already exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_added_cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added character: {0} to {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_stock_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to read stock file for merchant id: {0}</t>
+    <t>cwl_log_post_cleanup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed invalid {0} id: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create character {0}, cannot be generated</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -909,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,10 +939,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -988,10 +963,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1012,10 +987,10 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -1071,22 +1046,22 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1095,10 +1070,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1107,10 +1082,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1155,10 +1130,10 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -1167,10 +1142,10 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1197,14 +1172,14 @@
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1213,10 +1188,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1237,10 +1212,10 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1381,10 +1356,10 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -1405,250 +1380,216 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B47"/>
       <c r="C47" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="186" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="209.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C52" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>108</v>
+      <c r="D59" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
+      <c r="A60" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FF389E-7657-45B3-943B-ED2C6CA683A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEED914-EB92-4A46-8173-3061159F8881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="126">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,12 +507,64 @@
     <t>failed to create character {0}, cannot be generated</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_warn_missing_mods</t>
+  </si>
+  <si>
+    <t>cwl_warn_missing_mods_yes</t>
+  </si>
+  <si>
+    <t>cwl_warn_missing_mods_no</t>
+  </si>
+  <si>
+    <t>Quit Without Saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue Playing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mods missing from current save:
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セーブせずに終了</t>
+  </si>
+  <si>
+    <t>プレイを続ける</t>
+  </si>
+  <si>
+    <r>
+      <t>現在のセーブから欠落している</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：
+{0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +614,12 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -583,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -603,6 +661,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1588,8 +1649,38 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEED914-EB92-4A46-8173-3061159F8881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6080F-490B-4A01-BAA8-E5459030C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -559,12 +559,34 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_log_finished_loading</t>
+  </si>
+  <si>
+    <t>[CWL] {0} がロードされました。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CWL] {0} has been loaded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_sound_loading</t>
+  </si>
+  <si>
+    <t>[CWL] 音声 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CWL] loading sound {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +642,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color rgb="FF89CA78"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -641,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -664,6 +692,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1682,6 +1713,28 @@
         <v>121</v>
       </c>
     </row>
+    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">
     <sortCondition ref="A35"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6080F-490B-4A01-BAA8-E5459030C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01430CF4-D1B6-489E-991F-7F3C926BE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,12 +581,19 @@
     <t>[CWL] loading sound {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_log_effect_loaded</t>
+  </si>
+  <si>
+    <t>loaded EffectSetting/{0}: {1} &gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +655,12 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color rgb="FF89CA78"/>
+      <name val="Cascadia Code"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -669,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -694,6 +707,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1717,10 +1733,11 @@
       <c r="A63" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1728,11 +1745,24 @@
       <c r="A64" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="9" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01430CF4-D1B6-489E-991F-7F3C926BE2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00E2CA-6EF1-4AD8-8D11-420B9C68D620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,31 +561,125 @@
   </si>
   <si>
     <t>cwl_log_finished_loading</t>
-  </si>
-  <si>
-    <t>[CWL] {0} がロードされました。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CWL] {0} has been loaded.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cwl_log_sound_loading</t>
-  </si>
-  <si>
-    <t>[CWL] 音声 {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CWL] loading sound {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cwl_log_effect_loaded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_loading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_loading_critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading sound {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CWL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;_&lt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>音声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}</t>
+    </r>
+  </si>
+  <si>
+    <t>Thanks for using CWL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loaded EffectSetting/{0}: {1} &gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Please wait…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+しばらくお待ちください</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CWL] {0} is processing data
+{1}{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[CWL] {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">データを処理中です
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>{1}{2}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,18 +743,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="15.8"/>
-      <color rgb="FF89CA78"/>
-      <name val="Cascadia Code"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="15.8"/>
-      <color rgb="FF89CA78"/>
-      <name val="Cascadia Code"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -682,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -706,10 +788,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1610,159 +1689,183 @@
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="9" t="s">
+    <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="1"/>
       <c r="C65" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>133</v>
+      <c r="D65" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B00E2CA-6EF1-4AD8-8D11-420B9C68D620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC3809-A309-4603-8787-1CA3946573D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="158">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,12 +682,85 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_log_processor_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added processor {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_bgm_clip_replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM global replacement: {0}, {1} =&gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_bgm_id_collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned row based id: {0} to BGM: {1}, excplicit id is preferred to avoid BGM lookup collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_bgm_added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added new BGM: {0} {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_source_rethrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+row#{0}, cell#{1}/{2}, expected:{3}, raw:{4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_source_rethrow_row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, SourceData begins at the 4th row. 3rd row is expected to be the default value row.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_source_rethrow_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, default:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_playlist_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped empty playlist {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_playlist_added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added {0}, merge {1}, remove {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -743,6 +816,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <color rgb="FF89CA78"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -764,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -790,6 +875,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1868,6 +1957,114 @@
         <v>136</v>
       </c>
     </row>
+    <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">
     <sortCondition ref="A35"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC3809-A309-4603-8787-1CA3946573D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B8B8D-62A3-4717-B0F1-28B61758D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -654,8 +654,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[CWL] {0} is processing data
-{1}{2}</t>
+    <t>cwl_log_processor_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added processor {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_bgm_clip_replace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM global replacement: {0}, {1} =&gt; {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_bgm_id_collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned row based id: {0} to BGM: {1}, excplicit id is preferred to avoid BGM lookup collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_bgm_added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added new BGM: {0} {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_source_rethrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+row#{0}, cell#{1}/{2}, expected:{3}, raw:{4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_source_rethrow_row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, SourceData begins at the 4th row. 3rd row is expected to be the default value row.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_source_rethrow_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, default:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_playlist_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skipped empty playlist {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_playlist_added</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added {0}, merge {1}, remove {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -678,81 +746,15 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t>{1}{2}</t>
+      <t>{1}
+{2}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_log_processor_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added processor {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_bgm_clip_replace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM global replacement: {0}, {1} =&gt; {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_bgm_id_collision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assigned row based id: {0} to BGM: {1}, excplicit id is preferred to avoid BGM lookup collision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_bgm_added</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added new BGM: {0} {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_error_source_rethrow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-row#{0}, cell#{1}/{2}, expected:{3}, raw:{4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_error_source_rethrow_row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>, SourceData begins at the 4th row. 3rd row is expected to be the default value row.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_error_source_rethrow_def</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>, default:{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_playlist_empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skipped empty playlist {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_playlist_added</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added {0}, merge {1}, remove {2}</t>
+    <t>[CWL] {0} is processing data
+{1}
+{2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1933,16 +1935,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -1959,110 +1961,110 @@
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325B8B8D-62A3-4717-B0F1-28B61758D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A94AC62-388C-4F3D-9D93-0EA5C87CFDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -755,6 +755,30 @@
     <t>[CWL] {0} is processing data
 {1}
 {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_bgm_shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_bgm_stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>streaming: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_bgm_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailed: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1857,7 +1881,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -2008,7 +2032,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B72" s="1"/>
@@ -2020,7 +2044,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B73" s="1"/>
@@ -2032,7 +2056,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="4" t="s">
         <v>150</v>
       </c>
       <c r="B74" s="1"/>
@@ -2044,7 +2068,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B75" s="1"/>
@@ -2066,6 +2090,54 @@
       <c r="D76" s="1" t="s">
         <v>155</v>
       </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A94AC62-388C-4F3D-9D93-0EA5C87CFDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACC14B-B6AD-4314-9C29-287877FAA683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -674,10 +674,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>assigned row based id: {0} to BGM: {1}, excplicit id is preferred to avoid BGM lookup collision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_bgm_added</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,6 +775,18 @@
   </si>
   <si>
     <t>detailed: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned row based id: {1} to BGM: {0}, excplicit id is preferred to avoid BGM lookup collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_quest_id_thing</t>
+  </si>
+  <si>
+    <t>quest {0} is trying to use invalid id: "{1}"
+CWL kept the game going by replacing it with "{2}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1965,10 +1973,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2013,125 +2021,131 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BACC14B-B6AD-4314-9C29-287877FAA683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95946B84-DB5B-4AD6-9A33-18CCD0780423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +788,13 @@
     <t>quest {0} is trying to use invalid id: "{1}"
 CWL kept the game going by replacing it with "{2}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_quest_id_thing2</t>
+  </si>
+  <si>
+    <t>CWL purged invalid item id: "{0}"
+{1}</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1204,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2147,11 +2154,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
+    <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>166</v>
+      </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="C81" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95946B84-DB5B-4AD6-9A33-18CCD0780423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8668CB8C-E8B1-4A20-B736-AC7B72930685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,6 +795,22 @@
   <si>
     <t>CWL purged invalid item id: "{0}"
 {1}</t>
+  </si>
+  <si>
+    <t>cwl_log_drama_build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebuilt {0} methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_drama_build_ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building external methods form {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1201,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2166,6 +2182,54 @@
         <v>167</v>
       </c>
     </row>
+    <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">
     <sortCondition ref="A35"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8668CB8C-E8B1-4A20-B736-AC7B72930685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275AE48E-5A38-402C-9674-708FC59B7AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="174">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,6 +810,14 @@
   </si>
   <si>
     <t>building external methods form {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_zone_invalid</t>
+  </si>
+  <si>
+    <t>{0} is using invalid zone type: {1}
+CWL replaced it with a random zone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1220,7 +1228,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2206,11 +2214,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
+    <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="C84" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275AE48E-5A38-402C-9674-708FC59B7AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBE917F-DC16-4905-B25F-BE8E3250940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="180">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,6 +818,82 @@
   <si>
     <t>{0} is using invalid zone type: {1}
 CWL replaced it with a random zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_hover_detail</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>詳細情報を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右クリック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>閉じる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;view details&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;[RMB] close&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_hover_close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1228,7 +1304,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2227,16 +2303,28 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBE917F-DC16-4905-B25F-BE8E3250940A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5B4F64-1307-4724-BF93-B4DFDF673C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="186">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -896,12 +896,72 @@
     <t>cwl_ui_hover_close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_ui_exception_analyze</t>
+  </si>
+  <si>
+    <t>cwl_ui_exception_analyzing</t>
+  </si>
+  <si>
+    <t>&lt;analyze stackframes&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分析スタックフレーム中…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>可分析スタックフレーム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;extracting stackframes...&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -968,6 +1028,12 @@
       <color rgb="FF89CA78"/>
       <name val="Cascadia Code"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1301,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2326,11 +2392,53 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
+    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5B4F64-1307-4724-BF93-B4DFDF673C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECAD67-2B54-4D49-8679-192548040974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Loading sound {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>CWL</t>
     </r>
@@ -655,10 +651,6 @@
   </si>
   <si>
     <t>cwl_log_processor_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added processor {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -955,6 +947,28 @@
   <si>
     <t>&lt;extracting stackframes...&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added processor {0} {1} {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading sound {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_merge_god_elements</t>
+  </si>
+  <si>
+    <t>failed to read religion elements data
+{0}
+{1}</t>
+  </si>
+  <si>
+    <t>cwl_log_god_elements</t>
+  </si>
+  <si>
+    <t>bound {0} faction elements to religion id: {1}</t>
   </si>
 </sst>
 </file>
@@ -1369,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1989,10 +2003,10 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2122,10 +2136,10 @@
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2134,10 +2148,10 @@
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2146,10 +2160,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2158,275 +2172,287 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="C89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ECAD67-2B54-4D49-8679-192548040974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FADF7C0-5009-40B1-8402-3257CDE09823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -953,10 +953,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>loading sound {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_error_merge_god_elements</t>
   </si>
   <si>
@@ -969,6 +965,22 @@
   </si>
   <si>
     <t>bound {0} faction elements to religion id: {1}</t>
+  </si>
+  <si>
+    <t>preloaded sound {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_stock_merge</t>
+  </si>
+  <si>
+    <t>merged stock: {0} into character id: {1}</t>
+  </si>
+  <si>
+    <t>cwl_log_stock_add</t>
+  </si>
+  <si>
+    <t>added new stock: {0} to character id: {1}</t>
   </si>
 </sst>
 </file>
@@ -1383,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:D90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2151,7 +2163,7 @@
         <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2432,39 +2444,51 @@
     </row>
     <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FADF7C0-5009-40B1-8402-3257CDE09823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C7D7B-45CF-478D-ABCC-99B7CF866E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="5205" windowWidth="29040" windowHeight="15720" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51390" yWindow="5535" windowWidth="29010" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -982,12 +982,24 @@
   <si>
     <t>added new stock: {0} to character id: {1}</t>
   </si>
+  <si>
+    <t>cwl_log_converter_apply</t>
+  </si>
+  <si>
+    <t>applied converter data {0} on {1}</t>
+  </si>
+  <si>
+    <t>cwl_warn_converter_missing</t>
+  </si>
+  <si>
+    <t>failed to find converter data {0} for {1}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1073,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="7"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1082,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1113,9 +1131,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1393,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2490,6 +2511,72 @@
         <v>193</v>
       </c>
     </row>
+    <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">
     <sortCondition ref="A35"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C7D7B-45CF-478D-ABCC-99B7CF866E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF46D8A-8EE2-4F11-99E9-45489690ECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51390" yWindow="5535" windowWidth="29010" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="15" windowWidth="38700" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="222">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,12 +994,90 @@
   <si>
     <t>failed to find converter data {0} for {1}</t>
   </si>
+  <si>
+    <t>cwl_ui_stub_info</t>
+  </si>
+  <si>
+    <t>CWL Stub Info</t>
+  </si>
+  <si>
+    <t>cwl_ui_stub_header</t>
+  </si>
+  <si>
+    <t>Percentage / Average Frame Ms</t>
+  </si>
+  <si>
+    <t>CWL 単フレーム情報</t>
+  </si>
+  <si>
+    <t>占有率 / 平均フレームms</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_view</t>
+  </si>
+  <si>
+    <t>プレイリストを見る</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_hide</t>
+  </si>
+  <si>
+    <t>プレイリストを隠す</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_next</t>
+  </si>
+  <si>
+    <t>次の曲</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_last</t>
+  </si>
+  <si>
+    <t>前の曲</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_shuffle</t>
+  </si>
+  <si>
+    <t>シャッフル</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_rebuild</t>
+  </si>
+  <si>
+    <t>プレイリストデータの再構築</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1079,6 +1157,17 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="Cascadia Code"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1100,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1132,6 +1221,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93:D94"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2535,47 +2628,161 @@
         <v>197</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="1"/>
+      <c r="C95" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="C96" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="C97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="C98" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF46D8A-8EE2-4F11-99E9-45489690ECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2124CDB3-076B-44BD-BF08-7C1360A399B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="15" windowWidth="38700" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="225">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1070,6 +1070,17 @@
   </si>
   <si>
     <t>Hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_converter_reload</t>
+  </si>
+  <si>
+    <t>再構築</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2725,10 +2736,16 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="C103" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2124CDB3-076B-44BD-BF08-7C1360A399B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D133591D-DBEF-47A5-8142-40E6F2B38565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="15" windowWidth="38700" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,50 +838,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>&lt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>右クリック</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>閉じる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;view details&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;[RMB] close&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1081,6 +1038,86 @@
   </si>
   <si>
     <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マウス右クリック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>閉じる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;
+&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マウス中クリック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>閉じて再表示しない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;[RMB] close&gt;
+&lt;[MMB&gt; do not show&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2288,7 +2325,7 @@
         <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2321,10 +2358,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2528,223 +2565,223 @@
         <v>173</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>176</v>
+      <c r="C86" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D133591D-DBEF-47A5-8142-40E6F2B38565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4CF1A8-0D2E-4072-A4C1-4A7960FFCE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="15" windowWidth="38700" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="230">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -678,11 +678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-row#{0}, cell#{1}/{2}, expected:{3}, raw:{4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_error_source_rethrow_row</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1117,7 +1112,46 @@
   </si>
   <si>
     <t>&lt;[RMB] close&gt;
-&lt;[MMB&gt; do not show&gt;</t>
+&lt;[MMB] do not show&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_fuzzy_lookup</t>
+  </si>
+  <si>
+    <t>cannot find element: {0}</t>
+  </si>
+  <si>
+    <t>row#{0}, cell#{1}/{2}, expected:{3}, raw:{4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_vacate_beggar</t>
+  </si>
+  <si>
+    <r>
+      <t>こじき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>たいさん</t>
+    </r>
+  </si>
+  <si>
+    <t>Beggars Begone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1557,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2325,7 +2359,7 @@
         <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2334,10 +2368,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2358,10 +2392,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2382,10 +2416,10 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2400,401 +2434,413 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>143</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
+      <c r="A104" s="12" t="s">
+        <v>224</v>
+      </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="C105" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4CF1A8-0D2E-4072-A4C1-4A7960FFCE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A5415E-74AD-4635-B9D0-132DACD4DADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="15" windowWidth="38700" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="233">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1152,6 +1152,16 @@
   </si>
   <si>
     <t>Beggars Begone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_converter</t>
+  </si>
+  <si>
+    <t>変換器</t>
+  </si>
+  <si>
+    <t>Converter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1589,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2808,45 +2818,51 @@
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D104" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
+    <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1" t="s">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="9" t="s">
+      <c r="B106" s="1"/>
+      <c r="C106" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D106" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -2883,6 +2899,12 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A5415E-74AD-4635-B9D0-132DACD4DADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CF4003-CC72-4FCC-9AC4-0BC432FBB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="15" windowWidth="38700" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3105" windowWidth="28185" windowHeight="16695" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="239">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1163,6 +1163,24 @@
   <si>
     <t>Converter</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_deduplicate</t>
+  </si>
+  <si>
+    <t>de-duplicated rows: {0}</t>
+  </si>
+  <si>
+    <t>cwl_log_unique_count</t>
+  </si>
+  <si>
+    <t>{0} row count {1} | unique count {2}</t>
+  </si>
+  <si>
+    <t>cwl_log_spatial_gen</t>
+  </si>
+  <si>
+    <t>instantiating new zone {0} / {1}</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1620,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="D107" sqref="D107:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2865,22 +2883,40 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CF4003-CC72-4FCC-9AC4-0BC432FBB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C8145-511E-48DB-A39F-661C1A6D6F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3105" windowWidth="28185" windowHeight="16695" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6015" yWindow="3405" windowWidth="31380" windowHeight="16695" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="245">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,10 +399,6 @@
   </si>
   <si>
     <t>cwl_log_ele_gain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto gained ability id: {0} on {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1181,6 +1177,34 @@
   </si>
   <si>
     <t>instantiating new zone {0} / {1}</t>
+  </si>
+  <si>
+    <t>typo in custom type: {0} =&gt; {1}</t>
+  </si>
+  <si>
+    <t>cwl_warn_qualify_typo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_hobo_begone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacated {0} beggar(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_drama_play_ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error occurred during drama play!
+CWL caught the exception and kept the game going
+Please check the Player.log and mods.
+{0}</t>
+  </si>
+  <si>
+    <t>auto gained element: {0}/{1} on {2}</t>
   </si>
 </sst>
 </file>
@@ -1619,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107:D109"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1696,10 +1720,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1779,22 +1803,22 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1905,14 +1929,14 @@
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2143,70 +2167,70 @@
     </row>
     <row r="44" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47"/>
       <c r="C47" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="209.25" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2235,14 +2259,14 @@
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2269,13 +2293,13 @@
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>115</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2305,636 +2329,654 @@
         <v>91</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>92</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>220</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
     <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="93" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+      <c r="C112" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C8145-511E-48DB-A39F-661C1A6D6F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F40329-43E5-4C8F-A898-7A30635DCF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="3405" windowWidth="31380" windowHeight="16695" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14940" yWindow="1545" windowWidth="31380" windowHeight="18825" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -807,8 +807,187 @@
     <t>cwl_ui_hover_detail</t>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
+    <t>&lt;view details&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_hover_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_exception_analyze</t>
+  </si>
+  <si>
+    <t>cwl_ui_exception_analyzing</t>
+  </si>
+  <si>
+    <t>&lt;extracting stackframes...&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added processor {0} {1} {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_error_merge_god_elements</t>
+  </si>
+  <si>
+    <t>failed to read religion elements data
+{0}
+{1}</t>
+  </si>
+  <si>
+    <t>cwl_log_god_elements</t>
+  </si>
+  <si>
+    <t>bound {0} faction elements to religion id: {1}</t>
+  </si>
+  <si>
+    <t>preloaded sound {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_stock_merge</t>
+  </si>
+  <si>
+    <t>merged stock: {0} into character id: {1}</t>
+  </si>
+  <si>
+    <t>cwl_log_stock_add</t>
+  </si>
+  <si>
+    <t>added new stock: {0} to character id: {1}</t>
+  </si>
+  <si>
+    <t>cwl_log_converter_apply</t>
+  </si>
+  <si>
+    <t>applied converter data {0} on {1}</t>
+  </si>
+  <si>
+    <t>cwl_warn_converter_missing</t>
+  </si>
+  <si>
+    <t>failed to find converter data {0} for {1}</t>
+  </si>
+  <si>
+    <t>cwl_ui_stub_info</t>
+  </si>
+  <si>
+    <t>CWL Stub Info</t>
+  </si>
+  <si>
+    <t>cwl_ui_stub_header</t>
+  </si>
+  <si>
+    <t>Percentage / Average Frame Ms</t>
+  </si>
+  <si>
+    <t>CWL 単フレーム情報</t>
+  </si>
+  <si>
+    <t>占有率 / 平均フレームms</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_view</t>
+  </si>
+  <si>
+    <t>プレイリストを見る</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_hide</t>
+  </si>
+  <si>
+    <t>プレイリストを隠す</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_next</t>
+  </si>
+  <si>
+    <t>次の曲</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_last</t>
+  </si>
+  <si>
+    <t>前の曲</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_shuffle</t>
+  </si>
+  <si>
+    <t>シャッフル</t>
+  </si>
+  <si>
+    <t>cwl_ui_bgm_rebuild</t>
+  </si>
+  <si>
+    <t>プレイリストデータの再構築</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_converter_reload</t>
+  </si>
+  <si>
+    <t>再構築</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;[RMB] close&gt;
+&lt;[MMB] do not show&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_fuzzy_lookup</t>
+  </si>
+  <si>
+    <t>cannot find element: {0}</t>
+  </si>
+  <si>
+    <t>row#{0}, cell#{1}/{2}, expected:{3}, raw:{4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_vacate_beggar</t>
+  </si>
+  <si>
+    <r>
+      <t>こじき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -817,7 +996,81 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>詳細情報を表示</t>
+      <t>たいさん</t>
+    </r>
+  </si>
+  <si>
+    <t>Beggars Begone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_converter</t>
+  </si>
+  <si>
+    <t>変換器</t>
+  </si>
+  <si>
+    <t>Converter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_deduplicate</t>
+  </si>
+  <si>
+    <t>de-duplicated rows: {0}</t>
+  </si>
+  <si>
+    <t>cwl_log_unique_count</t>
+  </si>
+  <si>
+    <t>{0} row count {1} | unique count {2}</t>
+  </si>
+  <si>
+    <t>cwl_log_spatial_gen</t>
+  </si>
+  <si>
+    <t>instantiating new zone {0} / {1}</t>
+  </si>
+  <si>
+    <t>typo in custom type: {0} =&gt; {1}</t>
+  </si>
+  <si>
+    <t>cwl_warn_qualify_typo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_hobo_begone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacated {0} beggar(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_drama_play_ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error occurred during drama play!
+CWL caught the exception and kept the game going
+Please check the Player.log and mods.
+{0}</t>
+  </si>
+  <si>
+    <t>auto gained element: {0}/{1} on {2}</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>詳細を表示</t>
     </r>
     <r>
       <rPr>
@@ -829,220 +1082,17 @@
     </r>
   </si>
   <si>
-    <t>&lt;view details&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_hover_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_exception_analyze</t>
-  </si>
-  <si>
-    <t>cwl_ui_exception_analyzing</t>
-  </si>
-  <si>
-    <t>&lt;analyze stackframes&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
+    <r>
+      <t>&lt;[</t>
     </r>
     <r>
       <rPr>
         <sz val="15.8"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="128"/>
+        <charset val="134"/>
       </rPr>
-      <t>分析スタックフレーム中…</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>可分析スタックフレーム</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;extracting stackframes...&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added processor {0} {1} {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_error_merge_god_elements</t>
-  </si>
-  <si>
-    <t>failed to read religion elements data
-{0}
-{1}</t>
-  </si>
-  <si>
-    <t>cwl_log_god_elements</t>
-  </si>
-  <si>
-    <t>bound {0} faction elements to religion id: {1}</t>
-  </si>
-  <si>
-    <t>preloaded sound {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_stock_merge</t>
-  </si>
-  <si>
-    <t>merged stock: {0} into character id: {1}</t>
-  </si>
-  <si>
-    <t>cwl_log_stock_add</t>
-  </si>
-  <si>
-    <t>added new stock: {0} to character id: {1}</t>
-  </si>
-  <si>
-    <t>cwl_log_converter_apply</t>
-  </si>
-  <si>
-    <t>applied converter data {0} on {1}</t>
-  </si>
-  <si>
-    <t>cwl_warn_converter_missing</t>
-  </si>
-  <si>
-    <t>failed to find converter data {0} for {1}</t>
-  </si>
-  <si>
-    <t>cwl_ui_stub_info</t>
-  </si>
-  <si>
-    <t>CWL Stub Info</t>
-  </si>
-  <si>
-    <t>cwl_ui_stub_header</t>
-  </si>
-  <si>
-    <t>Percentage / Average Frame Ms</t>
-  </si>
-  <si>
-    <t>CWL 単フレーム情報</t>
-  </si>
-  <si>
-    <t>占有率 / 平均フレームms</t>
-  </si>
-  <si>
-    <t>cwl_ui_bgm_view</t>
-  </si>
-  <si>
-    <t>プレイリストを見る</t>
-  </si>
-  <si>
-    <t>cwl_ui_bgm_hide</t>
-  </si>
-  <si>
-    <t>プレイリストを隠す</t>
-  </si>
-  <si>
-    <t>cwl_ui_bgm_next</t>
-  </si>
-  <si>
-    <t>次の曲</t>
-  </si>
-  <si>
-    <t>cwl_ui_bgm_last</t>
-  </si>
-  <si>
-    <t>前の曲</t>
-  </si>
-  <si>
-    <t>cwl_ui_bgm_shuffle</t>
-  </si>
-  <si>
-    <t>シャッフル</t>
-  </si>
-  <si>
-    <t>cwl_ui_bgm_rebuild</t>
-  </si>
-  <si>
-    <t>プレイリストデータの再構築</t>
-  </si>
-  <si>
-    <t>Shuffle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_converter_reload</t>
-  </si>
-  <si>
-    <t>再構築</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マウス右クリック</t>
+      <t>マウスの右ボタン</t>
     </r>
     <r>
       <rPr>
@@ -1055,9 +1105,9 @@
     <r>
       <rPr>
         <sz val="15.8"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="128"/>
+        <charset val="134"/>
       </rPr>
       <t>閉じる</t>
     </r>
@@ -1073,11 +1123,11 @@
     <r>
       <rPr>
         <sz val="15.8"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="128"/>
+        <charset val="134"/>
       </rPr>
-      <t>マウス中クリック</t>
+      <t>マウスの中ボタン</t>
     </r>
     <r>
       <rPr>
@@ -1090,11 +1140,11 @@
     <r>
       <rPr>
         <sz val="15.8"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="128"/>
+        <charset val="134"/>
       </rPr>
-      <t>閉じて再表示しない</t>
+      <t>閉じて今後表示しない</t>
     </r>
     <r>
       <rPr>
@@ -1104,37 +1154,10 @@
       </rPr>
       <t>&gt;</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;[RMB] close&gt;
-&lt;[MMB] do not show&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_fuzzy_lookup</t>
-  </si>
-  <si>
-    <t>cannot find element: {0}</t>
-  </si>
-  <si>
-    <t>row#{0}, cell#{1}/{2}, expected:{3}, raw:{4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_vacate_beggar</t>
-  </si>
-  <si>
-    <r>
-      <t>こじき</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;[</t>
     </r>
     <r>
       <rPr>
@@ -1143,75 +1166,66 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>たいさん</t>
-    </r>
-  </si>
-  <si>
-    <t>Beggars Begone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_converter</t>
-  </si>
-  <si>
-    <t>変換器</t>
-  </si>
-  <si>
-    <t>Converter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_deduplicate</t>
-  </si>
-  <si>
-    <t>de-duplicated rows: {0}</t>
-  </si>
-  <si>
-    <t>cwl_log_unique_count</t>
-  </si>
-  <si>
-    <t>{0} row count {1} | unique count {2}</t>
-  </si>
-  <si>
-    <t>cwl_log_spatial_gen</t>
-  </si>
-  <si>
-    <t>instantiating new zone {0} / {1}</t>
-  </si>
-  <si>
-    <t>typo in custom type: {0} =&gt; {1}</t>
-  </si>
-  <si>
-    <t>cwl_warn_qualify_typo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_hobo_begone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vacated {0} beggar(s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_drama_play_ex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error occurred during drama play!
-CWL caught the exception and kept the game going
-Please check the Player.log and mods.
-{0}</t>
-  </si>
-  <si>
-    <t>auto gained element: {0}/{1} on {2}</t>
+      <t>マウスを乗せて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>詳細を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>スタックフレーム分析中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>…&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;[Mouse Hover] view details&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1278,12 +1292,6 @@
       <color rgb="FF89CA78"/>
       <name val="Cascadia Code"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="15.8"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="15.8"/>
@@ -1354,11 +1362,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1643,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2329,10 +2337,10 @@
         <v>91</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2411,7 +2419,7 @@
         <v>131</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2444,10 +2452,10 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2492,10 +2500,10 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
@@ -2648,334 +2656,334 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="13" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="93" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F40329-43E5-4C8F-A898-7A30635DCF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A113FF3-9DE9-4726-958F-95706F2F9827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14940" yWindow="1545" windowWidth="31380" windowHeight="18825" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1230" windowWidth="31380" windowHeight="18825" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="251">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,12 +1220,30 @@
     <t>&lt;[Mouse Hover] view details&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_warn_drama_id_collision</t>
+  </si>
+  <si>
+    <t>Drama ID collision [{0}] =&gt; [{1}] at line#{2}</t>
+  </si>
+  <si>
+    <t>cwl_warn_pop_talk_empty</t>
+  </si>
+  <si>
+    <t>{0} attempts to pop empty text, CWL prevented it</t>
+  </si>
+  <si>
+    <t>cwl_log_chara_restore</t>
+  </si>
+  <si>
+    <t>restored chara data {0} to {1}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1328,12 @@
       <name val="Cascadia Code"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1331,7 +1355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1367,6 +1391,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,10 +1676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2951,7 +2978,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B110" s="1"/>
@@ -2975,7 +3002,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="93" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B112" s="1"/>
@@ -2987,10 +3014,190 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="A113" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+    </row>
+    <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+    </row>
+    <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+    </row>
+    <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+    </row>
+    <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+    </row>
+    <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+    </row>
+    <row r="124" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+    </row>
+    <row r="126" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+    </row>
+    <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+    </row>
+    <row r="128" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+    </row>
+    <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+    </row>
+    <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+    </row>
+    <row r="133" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+    </row>
+    <row r="134" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+    </row>
+    <row r="135" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A113FF3-9DE9-4726-958F-95706F2F9827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6D3E25-38AC-49C4-90B6-F5142CEAA976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2805" yWindow="1230" windowWidth="31380" windowHeight="18825" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1238,12 +1238,57 @@
   <si>
     <t>restored chara data {0} to {1}</t>
   </si>
+  <si>
+    <t>cwl_ui_chara_restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The following character(s) have source ID available:
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore_yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Character Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leave Them Be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>次のキャラクターのデータが復元可能です：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+{0}</t>
+    </r>
+  </si>
+  <si>
+    <t>キャラクターデータを復元</t>
+  </si>
+  <si>
+    <t>このままにする</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,6 +1379,11 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1355,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1394,6 +1444,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1678,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3049,107 +3108,125 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-    </row>
-    <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-    </row>
-    <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
+    <row r="116" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="15"/>
+      <c r="C118" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
     </row>
     <row r="121" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
     </row>
     <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
     </row>
     <row r="124" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
     </row>
     <row r="125" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
     </row>
     <row r="128" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
     </row>
     <row r="129" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
     </row>
     <row r="130" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
     </row>
     <row r="133" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6D3E25-38AC-49C4-90B6-F5142CEAA976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3325D0-E8C4-4169-A793-C29F8189BE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1230" windowWidth="31380" windowHeight="18825" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="1275" windowWidth="31380" windowHeight="19095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="263">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,12 +1283,22 @@
   <si>
     <t>このままにする</t>
   </si>
+  <si>
+    <t>cwl_ui_bgm_add_known</t>
+  </si>
+  <si>
+    <t>蓄音機に追加</t>
+  </si>
+  <si>
+    <t>Add to Gramophone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,6 +1394,13 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1405,7 +1422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1453,6 +1470,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,7 +1758,7 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3145,10 +3165,16 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
+      <c r="A119" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
+      <c r="C119" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3325D0-E8C4-4169-A793-C29F8189BE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E4033-EC12-421E-BBE3-902E9FD7F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1275" windowWidth="31380" windowHeight="19095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="690" windowWidth="34710" windowHeight="19095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -978,32 +978,6 @@
     <t>cwl_ui_vacate_beggar</t>
   </si>
   <si>
-    <r>
-      <t>こじき</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>たいさん</t>
-    </r>
-  </si>
-  <si>
-    <t>Beggars Begone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_ui_converter</t>
   </si>
   <si>
@@ -1040,10 +1014,6 @@
   </si>
   <si>
     <t>cwl_log_hobo_begone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vacated {0} beggar(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1291,6 +1261,17 @@
   </si>
   <si>
     <t>Add to Gramophone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひよこの掃除</t>
+  </si>
+  <si>
+    <t>Chicken Begone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed {0} chicken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1757,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2443,10 +2424,10 @@
         <v>91</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2762,7 +2743,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>171</v>
@@ -2774,7 +2755,7 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>217</v>
@@ -2786,10 +2767,10 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2798,7 +2779,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>175</v>
@@ -2974,14 +2955,14 @@
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3014,166 +2995,166 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="93" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E4033-EC12-421E-BBE3-902E9FD7F5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76139639-0AD4-40E8-BA3E-C4934D04D688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="690" windowWidth="34710" windowHeight="19095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8670" yWindow="1335" windowWidth="37590" windowHeight="19095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="267">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1272,6 +1272,22 @@
   </si>
   <si>
     <t>removed {0} chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_fix_actCombat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_fix_listAbility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed invalid actCombat ID: {0} from {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed invalid listAbility ID: {0} from {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3158,16 +3174,28 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="15"/>
+      <c r="A120" s="5" t="s">
+        <v>263</v>
+      </c>
       <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
+      <c r="C120" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
+      <c r="A121" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
+      <c r="C121" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76139639-0AD4-40E8-BA3E-C4934D04D688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084F67C-004D-4C19-A3CD-465159002410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="1335" windowWidth="37590" windowHeight="19095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="6105" windowWidth="25395" windowHeight="13290" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -474,21 +474,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>failed to create {0} id: {1}, type: {2}, it may be missing from current game
-CWL caught the exception and kept the game going
-if this is causing issues,  please check for outdated mods or disable {3} in the config file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;Missing {0}:{1}:{2}:{3}&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This class is missing or modified from your current game. 
-CWL kept the game going by replacing it with a safety cone.
-You should report the relevant information to mod author or CWL.
-Using this element(if usable) will let CWL purge it from your save.
-You may also keep the safety cone, CWL will restore it when the responsible mod functions again.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -768,11 +754,6 @@
     <t>cwl_warn_quest_id_thing</t>
   </si>
   <si>
-    <t>quest {0} is trying to use invalid id: "{1}"
-CWL kept the game going by replacing it with "{2}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_warn_quest_id_thing2</t>
   </si>
   <si>
@@ -1019,12 +1000,6 @@
   <si>
     <t>cwl_warn_drama_play_ex</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error occurred during drama play!
-CWL caught the exception and kept the game going
-Please check the Player.log and mods.
-{0}</t>
   </si>
   <si>
     <t>auto gained element: {0}/{1} on {2}</t>
@@ -1283,11 +1258,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>removed invalid actCombat ID: {0} from {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removed invalid listAbility ID: {0} from {1}</t>
+    <t>Error occurred during drama play!
+Please check the Player.log and mods.
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest {0} is trying to use invalid id: "{1}"
+CWL replaced it with "{2}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWL removed invalid actCombat ID: {0} from {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWL removed invalid listAbility ID: {0} from {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This class is missing or modified from your current game. 
+You should report the relevant information to mod author or CWL.
+Using this element(if usable) will let CWL purge it from your save.
+You may also keep the safety cone, CWL will restore it when the responsible mod functions again.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create {0} id: {1}, type: {2}, it may be missing from current game
+if this is causing issues,  please check for outdated mods or disable {3} in the config file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1754,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1831,10 +1829,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2298,16 +2296,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="116.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="93" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2327,21 +2325,21 @@
         <v>108</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="209.25" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="186" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2370,14 +2368,14 @@
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2404,13 +2402,13 @@
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2440,10 +2438,10 @@
         <v>91</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2470,731 +2468,731 @@
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="93" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="17" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="18" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="18" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3084F67C-004D-4C19-A3CD-465159002410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEAA786-4AAC-4FD6-AB81-2C011DEFF893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="6105" windowWidth="25395" windowHeight="13290" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="3255" windowWidth="25395" windowHeight="15930" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="268">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,34 +910,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_ui_converter_reload</t>
   </si>
   <si>
     <t>再構築</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reload</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1175,9 +1151,6 @@
     <t>cwl_warn_pop_talk_empty</t>
   </si>
   <si>
-    <t>{0} attempts to pop empty text, CWL prevented it</t>
-  </si>
-  <si>
     <t>cwl_log_chara_restore</t>
   </si>
   <si>
@@ -1286,6 +1259,40 @@
   <si>
     <t>failed to create {0} id: {1}, type: {2}, it may be missing from current game
 if this is causing issues,  please check for outdated mods or disable {3} in the config file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error occurred during drama play!
+Please check Player.log and mods.
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} attempts to pop empty text, CWL stopped it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View Playlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide Playlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next Song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Song</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1752,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2302,10 +2309,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2336,10 +2343,10 @@
         <v>109</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2438,10 +2445,10 @@
         <v>91</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2601,10 +2608,10 @@
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
@@ -2697,10 +2704,10 @@
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2757,7 +2764,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>168</v>
@@ -2769,10 +2776,10 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2781,10 +2788,10 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2793,7 +2800,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>172</v>
@@ -2904,7 +2911,7 @@
         <v>194</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2916,7 +2923,7 @@
         <v>196</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2928,7 +2935,7 @@
         <v>198</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>207</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2940,7 +2947,7 @@
         <v>200</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2964,235 +2971,235 @@
         <v>204</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="15" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="17" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="15" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="19" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D119" s="19" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEAA786-4AAC-4FD6-AB81-2C011DEFF893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794A6D1F-7561-4154-A0EF-C603D829BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="3255" windowWidth="25395" windowHeight="15930" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24855" yWindow="4305" windowWidth="25395" windowHeight="15930" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="271">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1295,12 +1295,24 @@
     <t>Reload Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_ui_sound_reload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サウンドを再読み込み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reload Sounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1403,6 +1415,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1424,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1475,6 +1494,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1759,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3202,11 +3224,17 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
+    <row r="122" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
+        <v>268</v>
+      </c>
       <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
+      <c r="C122" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794A6D1F-7561-4154-A0EF-C603D829BF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394BB4C4-C96A-430A-813B-329E42AFAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24855" yWindow="4305" windowWidth="25395" windowHeight="15930" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="2925" windowWidth="32715" windowHeight="15930" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="267">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,10 +435,6 @@
   </si>
   <si>
     <t>cwl_warn_stock_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to read stock file for merchant id: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -831,13 +827,7 @@
     <t>cwl_log_stock_merge</t>
   </si>
   <si>
-    <t>merged stock: {0} into character id: {1}</t>
-  </si>
-  <si>
     <t>cwl_log_stock_add</t>
-  </si>
-  <si>
-    <t>added new stock: {0} to character id: {1}</t>
   </si>
   <si>
     <t>cwl_log_converter_apply</t>
@@ -943,18 +933,6 @@
   <si>
     <t>Converter</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_deduplicate</t>
-  </si>
-  <si>
-    <t>de-duplicated rows: {0}</t>
-  </si>
-  <si>
-    <t>cwl_log_unique_count</t>
-  </si>
-  <si>
-    <t>{0} row count {1} | unique count {2}</t>
   </si>
   <si>
     <t>cwl_log_spatial_gen</t>
@@ -1305,6 +1283,18 @@
   </si>
   <si>
     <t>Reload Sounds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to read stock file id: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merged stock: {0} into character: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>added new stock: {0} to character: {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1779,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A108" sqref="A107:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1858,10 +1848,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2305,41 +2295,41 @@
     </row>
     <row r="44" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="93" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47"/>
       <c r="C47" s="6" t="s">
@@ -2351,24 +2341,24 @@
     </row>
     <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="186" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2397,14 +2387,14 @@
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2431,13 +2421,13 @@
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2467,10 +2457,10 @@
         <v>91</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2489,752 +2479,740 @@
         <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>101</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>218</v>
+      <c r="A108" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>222</v>
+      <c r="C110" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D112" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15" t="s">
         <v>254</v>
       </c>
+      <c r="D112" s="15" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5" t="s">
+      <c r="B115" s="15"/>
+      <c r="C115" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
+    </row>
+    <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="B116" s="15"/>
+      <c r="C116" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A117" s="15" t="s">
         <v>239</v>
       </c>
       <c r="B117" s="15"/>
-      <c r="C117" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117" s="15" t="s">
+      <c r="C117" s="19" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="s">
+      <c r="D117" s="19" t="s">
         <v>241</v>
       </c>
+    </row>
+    <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="B118" s="15"/>
-      <c r="C118" s="18" t="s">
-        <v>245</v>
+      <c r="C118" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="5" t="s">
         <v>246</v>
       </c>
       <c r="B119" s="15"/>
-      <c r="C119" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
-        <v>252</v>
+      <c r="C119" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>261</v>
       </c>
       <c r="B120" s="15"/>
-      <c r="C120" s="15" t="s">
-        <v>256</v>
+      <c r="C120" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
-        <v>253</v>
-      </c>
+      <c r="A121" s="15"/>
       <c r="B121" s="15"/>
-      <c r="C121" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
-        <v>268</v>
-      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+    </row>
+    <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A122" s="15"/>
       <c r="B122" s="15"/>
-      <c r="C122" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>270</v>
-      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
@@ -3285,16 +3263,16 @@
       <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="15"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
@@ -3331,18 +3309,6 @@
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394BB4C4-C96A-430A-813B-329E42AFAEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807542C-CF9D-43FB-90BF-FD60437DEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2925" windowWidth="32715" windowHeight="15930" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19680" yWindow="3915" windowWidth="25725" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="270">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_log_finished_loading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_sound_loading</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,45 +552,6 @@
   <si>
     <t>cwl_log_loading_critical</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CWL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>OK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;_&lt;</t>
-    </r>
   </si>
   <si>
     <r>
@@ -608,10 +565,6 @@
       </rPr>
       <t xml:space="preserve"> {0}</t>
     </r>
-  </si>
-  <si>
-    <t>Thanks for using CWL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loaded EffectSetting/{0}: {1} &gt; {2}</t>
@@ -1297,12 +1250,125 @@
     <t>added new stock: {0} to character: {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cwl_log_finished_loading_stable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CWL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;_&lt; &lt;color=#21a366&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安定版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanks for using CWL &lt;color=#21a366&gt;Stable&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CWL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;_&lt; &lt;color=#427ddc&gt;Nightly&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thanks for using CWL &lt;color=#427ddc&gt;Nightly&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_finished_loading_nightly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,6 +1477,12 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1769,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A108" sqref="A107:XFD108"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2321,10 +2393,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2355,10 +2427,10 @@
         <v>108</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2387,14 +2459,14 @@
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2457,10 +2529,10 @@
         <v>91</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2479,10 +2551,10 @@
         <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2520,693 +2592,699 @@
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="73" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D74" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>146</v>
+      <c r="A76" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>248</v>
+      <c r="C80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>161</v>
+      <c r="C82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="3" t="s">
+    </row>
+    <row r="87" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>224</v>
+      <c r="C87" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>176</v>
+      <c r="D90" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="12" t="s">
-        <v>182</v>
+      <c r="A94" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="13" t="s">
-        <v>188</v>
+      <c r="C95" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>255</v>
+      <c r="C97" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>257</v>
+      <c r="C99" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>258</v>
+        <v>192</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>212</v>
+      <c r="C103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>243</v>
+      <c r="D106" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>214</v>
+      <c r="C107" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
-        <v>216</v>
+      <c r="A108" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>217</v>
+      <c r="A109" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="B115" s="15"/>
+      <c r="C115" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="15"/>
+      <c r="C118" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="D118" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="15" t="s">
-        <v>261</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="B120" s="15"/>
-      <c r="C120" s="20" t="s">
-        <v>262</v>
+      <c r="C120" s="15" t="s">
+        <v>247</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
+        <v>258</v>
+      </c>
       <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
+      <c r="C121" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
@@ -3263,10 +3341,10 @@
       <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
@@ -3309,6 +3387,12 @@
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807542C-CF9D-43FB-90BF-FD60437DEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D345D1FE-E6C3-4F51-9AC5-677AD985BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="3915" windowWidth="25725" windowHeight="15345" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="3060" windowWidth="29205" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1361,6 +1364,15 @@
   </si>
   <si>
     <t>cwl_log_finished_loading_nightly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_card_create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create {0} row, ID: {1} / {2}
+{3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1843,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="B113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3286,11 +3298,17 @@
         <v>260</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
+    <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
+        <v>270</v>
+      </c>
       <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
+      <c r="C122" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D345D1FE-E6C3-4F51-9AC5-677AD985BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DCBCE1-9595-41E4-A2A3-C6575342BB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="3060" windowWidth="29205" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="3180" windowWidth="29205" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1373,6 +1373,15 @@
   <si>
     <t>failed to create {0} row, ID: {1} / {2}
 {3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_recipe_rebuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create recipe for row ID: {0} / {1}
+{2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1855,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D123" sqref="A123:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3299,7 +3308,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="5" t="s">
         <v>270</v>
       </c>
       <c r="B122" s="15"/>
@@ -3310,11 +3319,17 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="15"/>
+    <row r="123" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
+      <c r="C123" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DCBCE1-9595-41E4-A2A3-C6575342BB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB9488-1F2A-4B06-938B-81E5B680D9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="3180" windowWidth="29205" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="3285" windowWidth="29205" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1380,8 +1380,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>failed to create recipe for row ID: {0} / {1}
-{2}</t>
+    <t>failed to create recipe for row ID: {0} / {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1864,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D123" sqref="A123:D123"/>
+    <sheetView tabSelected="1" topLeftCell="B113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3319,7 +3318,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>272</v>
       </c>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB9488-1F2A-4B06-938B-81E5B680D9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B8EFC-B990-4A1A-8E72-51DA2C05F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="3285" windowWidth="29205" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="277">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1381,6 +1381,41 @@
   </si>
   <si>
     <t>failed to create recipe for row ID: {0} / {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_missing_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、お使いのゲームバージョンに対応していません。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+{0}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A mod is incompatible with your game version.
+{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1863,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3330,16 +3365,22 @@
         <v>273</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="15"/>
+    <row r="124" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
+      <c r="C124" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
+      <c r="C125"/>
       <c r="D125" s="15"/>
     </row>
     <row r="126" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B8EFC-B990-4A1A-8E72-51DA2C05F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AEEF5-AA63-456C-918A-542D872A2FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="3285" windowWidth="29205" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="4050" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="283">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1388,6 +1388,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Two versions of CWL are found!
+Only use the version that matches your game.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_duplicate_cwl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWLのバージョンが2つ見つかりました！
+お使いのゲームに合ったバージョンのみを使用してください。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>MOD</t>
     </r>
@@ -1416,6 +1430,55 @@
   <si>
     <t>A mod is incompatible with your game version.
 {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_callstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence of events (most recent on top):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>エラーが発生した時点でのアプリの動作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最も新しいものが一番上です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1423,7 +1486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,6 +1602,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1560,7 +1630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1614,6 +1684,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1898,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D126" sqref="A126:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3371,23 +3444,35 @@
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D125" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125"/>
-      <c r="D125" s="15"/>
-    </row>
-    <row r="126" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="15"/>
+    </row>
+    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
+        <v>280</v>
+      </c>
       <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
+      <c r="C126" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9AEEF5-AA63-456C-918A-542D872A2FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FE59E-D59E-41F8-A8F7-DA1803C31474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="4050" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17190" yWindow="3480" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1153,10 +1153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>removed {0} chicken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_warn_fix_actCombat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1479,6 +1475,10 @@
       </rPr>
       <t>):</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed {0} character</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1971,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D126" sqref="A126:D126"/>
+    <sheetView tabSelected="1" topLeftCell="B97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2521,10 +2521,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2555,10 +2555,10 @@
         <v>108</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2679,10 +2679,10 @@
         <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2720,26 +2720,26 @@
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2928,10 +2928,10 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -3060,10 +3060,10 @@
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3072,10 +3072,10 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
         <v>188</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3147,7 +3147,7 @@
         <v>190</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3159,7 +3159,7 @@
         <v>192</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3171,7 +3171,7 @@
         <v>194</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
         <v>198</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
         <v>201</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3276,10 +3276,10 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -3288,10 +3288,10 @@
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3312,10 +3312,10 @@
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3380,98 +3380,98 @@
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D124" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024FE59E-D59E-41F8-A8F7-DA1803C31474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8F9B60-18ED-4C1E-BC1D-7833BA6832CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="3480" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="3075" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="275">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,57 +1083,6 @@
   </si>
   <si>
     <t>cwl_warn_pop_talk_empty</t>
-  </si>
-  <si>
-    <t>cwl_log_chara_restore</t>
-  </si>
-  <si>
-    <t>restored chara data {0} to {1}</t>
-  </si>
-  <si>
-    <t>cwl_ui_chara_restore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The following character(s) have source ID available:
-{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_chara_restore_yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restore Character Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_chara_restore_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leave Them Be</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>次のキャラクターのデータが復元可能です：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-{0}</t>
-    </r>
-  </si>
-  <si>
-    <t>キャラクターデータを復元</t>
-  </si>
-  <si>
-    <t>このままにする</t>
   </si>
   <si>
     <t>cwl_ui_bgm_add_known</t>
@@ -1479,6 +1428,43 @@
   </si>
   <si>
     <t>removed {0} character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restored chara data {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」のキャラデータを復元しました</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_chara_restore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,7 +1472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1579,11 +1565,6 @@
     </font>
     <font>
       <sz val="15.8"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15.8"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1630,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1675,18 +1656,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1969,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2521,10 +2499,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2555,10 +2533,10 @@
         <v>108</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2679,10 +2657,10 @@
         <v>100</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2720,26 +2698,26 @@
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2928,10 +2906,10 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -3060,10 +3038,10 @@
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3072,10 +3050,10 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3135,7 +3113,7 @@
         <v>188</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3147,7 +3125,7 @@
         <v>190</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3159,7 +3137,7 @@
         <v>192</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3171,7 +3149,7 @@
         <v>194</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3195,7 +3173,7 @@
         <v>198</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3219,7 +3197,7 @@
         <v>201</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3240,10 +3218,10 @@
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3276,10 +3254,10 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -3288,10 +3266,10 @@
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3312,167 +3290,149 @@
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B116" s="15"/>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="15" t="s">
         <v>234</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
         <v>231</v>
       </c>
       <c r="B117" s="15"/>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="15" t="s">
         <v>235</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B118" s="15"/>
-      <c r="C118" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="C118" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B119" s="15"/>
-      <c r="C119" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>245</v>
+      <c r="C119" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B120" s="15"/>
-      <c r="C120" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
-        <v>257</v>
+      <c r="C120" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="B121" s="15"/>
-      <c r="C121" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>259</v>
+      <c r="C121" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D122" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="D123" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="15"/>
       <c r="B124" s="15"/>
-      <c r="C124" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+    </row>
+    <row r="125" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="15"/>
       <c r="B125" s="15"/>
-      <c r="C125" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
-        <v>279</v>
-      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+    </row>
+    <row r="126" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="15"/>
       <c r="B126" s="15"/>
-      <c r="C126" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>280</v>
-      </c>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
@@ -3487,22 +3447,22 @@
       <c r="D128" s="15"/>
     </row>
     <row r="129" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
@@ -3533,24 +3493,6 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-    </row>
-    <row r="137" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-    </row>
-    <row r="138" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8F9B60-18ED-4C1E-BC1D-7833BA6832CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABE28DE-364E-4D5E-91EE-32242DA95502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2565" yWindow="3075" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="284">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1465,6 +1465,42 @@
   </si>
   <si>
     <t>cwl_log_chara_restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore_yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following character(s) can be restored:
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore and Regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復元可能なキャラクター: {0}</t>
+  </si>
+  <si>
+    <t>無視して再生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>データの復元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1472,7 +1508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,6 +1626,18 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15.8"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1611,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1665,6 +1713,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1947,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D117" sqref="A115:D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3308,131 +3362,149 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
+    <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="17" t="s">
+      <c r="B118" s="15"/>
+      <c r="C118" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D118" s="17" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
+    <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15" t="s">
+      <c r="B119" s="15"/>
+      <c r="C119" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D116" s="15" t="s">
+      <c r="D119" s="15" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B120" s="15"/>
-      <c r="C120" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
-        <v>262</v>
+      <c r="C120" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="B121" s="15"/>
-      <c r="C121" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>267</v>
+      <c r="C121" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="15"/>
+      <c r="C125" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D125" s="16" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="15" t="s">
+    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="19" t="s">
+      <c r="B126" s="15"/>
+      <c r="C126" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D123" s="15" t="s">
+      <c r="D126" s="15" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-    </row>
-    <row r="125" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-    </row>
-    <row r="126" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
     </row>
     <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
@@ -3447,22 +3519,22 @@
       <c r="D128" s="15"/>
     </row>
     <row r="129" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
     </row>
     <row r="130" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="A130" s="15"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
     </row>
     <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
@@ -3493,6 +3565,24 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+    </row>
+    <row r="138" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+    </row>
+    <row r="139" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABE28DE-364E-4D5E-91EE-32242DA95502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405A5B07-0C7C-4C23-85B2-AE68F1E7CB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="3075" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="3030" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>failed to add thing:{0} to {1}, cannot be generated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_warn_rel_missing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -482,10 +478,6 @@
   </si>
   <si>
     <t>removed invalid {0} id: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to create character {0}, cannot be generated</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1501,6 +1493,16 @@
   </si>
   <si>
     <t>データの復元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create character {0}
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to add thing:{0} to {1}
+{2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2003,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="A115:D117"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2074,16 +2076,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
+      <c r="C6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2163,22 +2165,22 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2187,10 +2189,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2199,10 +2201,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2289,14 +2291,14 @@
     </row>
     <row r="24" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2305,10 +2307,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2491,16 +2493,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>75</v>
+      <c r="C41" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2527,983 +2529,983 @@
     </row>
     <row r="44" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="93" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47"/>
       <c r="C47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="186" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D54" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405A5B07-0C7C-4C23-85B2-AE68F1E7CB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF608DEF-7FFE-4551-B39A-3ECDE4B39ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3045" yWindow="3030" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="287">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,10 +688,6 @@
   </si>
   <si>
     <t>detailed: {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assigned row based id: {1} to BGM: {0}, excplicit id is preferred to avoid BGM lookup collision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1503,6 +1499,70 @@
   <si>
     <t>failed to add thing:{0} to {1}
 {2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_invalid_hobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replaced invalid hobby {0} on character {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned row based id: {1} to BGM: {0}
+explicit id is preferred to avoid BGM lookup collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キャラクター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {1} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の無効な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Hobby {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を削除しました</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2005,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2082,10 +2142,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2499,10 +2559,10 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2555,10 +2615,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,10 +2649,10 @@
         <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2691,10 +2751,10 @@
         <v>90</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2713,10 +2773,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2754,26 +2814,26 @@
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2785,7 +2845,7 @@
         <v>124</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2818,10 +2878,10 @@
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2842,10 +2902,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2866,10 +2926,10 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
@@ -2958,561 +3018,567 @@
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>224</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="15" t="s">
         <v>245</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="15"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
+      <c r="C127" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" s="15" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF608DEF-7FFE-4551-B39A-3ECDE4B39ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECE301-ADF3-473B-9D5A-27397F7CE40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="3030" windowWidth="31395" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11010" yWindow="2865" windowWidth="23100" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1335,9 +1335,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>MOD</t>
-    </r>
+    <t>cwl_ui_callstack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence of events (most recent on top):</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="15.8"/>
@@ -1346,7 +1351,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>は、お使いのゲームバージョンに対応していません。</t>
+      <t>エラーが発生した時点でのアプリの動作</t>
     </r>
     <r>
       <rPr>
@@ -1355,25 +1360,8 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">
-{0}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A mod is incompatible with your game version.
-{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_callstack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sequence of events (most recent on top):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> (</t>
+    </r>
     <r>
       <rPr>
         <sz val="15.8"/>
@@ -1382,7 +1370,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>エラーが発生した時点でのアプリの動作</t>
+      <t>最も新しいものが一番上です</t>
     </r>
     <r>
       <rPr>
@@ -1391,8 +1379,111 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
+      <t>):</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removed {0} character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restored chara data {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」のキャラデータを復元しました</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_chara_restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore_yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_chara_restore_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Following character(s) can be restored:
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ignore and Regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>復元可能なキャラクター: {0}</t>
+  </si>
+  <si>
+    <t>無視して再生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>データの復元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to create character {0}
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed to add thing:{0} to {1}
+{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_warn_invalid_hobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replaced invalid hobby {0} on character {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assigned row based id: {1} to BGM: {0}
+explicit id is preferred to avoid BGM lookup collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="15.8"/>
@@ -1401,7 +1492,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>最も新しいものが一番上です</t>
+      <t>キャラクター</t>
     </r>
     <r>
       <rPr>
@@ -1410,111 +1501,8 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t>):</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>removed {0} character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restored chara data {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」のキャラデータを復元しました</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_log_chara_restore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_chara_restore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_chara_restore_yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_ui_chara_restore_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Following character(s) can be restored:
-{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ignore and Regenerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Restore Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>復元可能なキャラクター: {0}</t>
-  </si>
-  <si>
-    <t>無視して再生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>データの復元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to create character {0}
-{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>failed to add thing:{0} to {1}
-{2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwl_warn_invalid_hobby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Replaced invalid hobby {0} on character {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assigned row based id: {1} to BGM: {0}
-explicit id is preferred to avoid BGM lookup collision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> {1} </t>
+    </r>
     <r>
       <rPr>
         <sz val="15.8"/>
@@ -1523,7 +1511,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>キャラクター</t>
+      <t>の無効な</t>
     </r>
     <r>
       <rPr>
@@ -1532,7 +1520,7 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> {1} </t>
+      <t xml:space="preserve">Hobby {0} </t>
     </r>
     <r>
       <rPr>
@@ -1542,7 +1530,28 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>の無効な</t>
+      <t>を削除しました</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#d343f7&gt;A mod is incompatible with your game version.&lt;/color&gt;
+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#d343f7&gt;MOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は、お使いのゲームバージョンに対応していません。</t>
     </r>
     <r>
       <rPr>
@@ -1551,17 +1560,8 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve">Hobby {0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を削除しました</t>
+      <t>&lt;/color&gt;
+{0}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2066,7 +2066,7 @@
   <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2142,10 +2142,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2559,10 +2559,10 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2902,10 +2902,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -3370,10 +3370,10 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -3414,50 +3414,50 @@
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3532,16 +3532,16 @@
         <v>258</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="72" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -3558,26 +3558,26 @@
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ECE301-ADF3-473B-9D5A-27397F7CE40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6465EB-405C-46C0-9BD7-E33E8E165DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="2865" windowWidth="23100" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9945" yWindow="2400" windowWidth="23100" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -750,14 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_error_merge_god_elements</t>
-  </si>
-  <si>
-    <t>failed to read religion elements data
-{0}
-{1}</t>
-  </si>
-  <si>
     <t>cwl_log_god_elements</t>
   </si>
   <si>
@@ -1563,6 +1555,14 @@
       <t>&lt;/color&gt;
 {0}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_god_offerings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bound {0} offerings multipliers to religion id: {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2065,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="D80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2142,10 +2142,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2559,10 +2559,10 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2615,10 +2615,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,10 +2649,10 @@
         <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2751,10 +2751,10 @@
         <v>90</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2773,10 +2773,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2814,26 +2814,26 @@
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2845,7 +2845,7 @@
         <v>124</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2902,10 +2902,10 @@
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -2926,10 +2926,10 @@
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
@@ -3022,10 +3022,10 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>161</v>
@@ -3094,10 +3094,10 @@
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3106,10 +3106,10 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3118,466 +3118,466 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>169</v>
+        <v>285</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="72" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6465EB-405C-46C0-9BD7-E33E8E165DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32411963-EDF7-4FE1-8450-2BB3DEC424E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9945" yWindow="2400" windowWidth="23100" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="290">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1563,6 +1563,39 @@
   </si>
   <si>
     <t>bound {0} offerings multipliers to religion id: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_invalid_patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=#d343f7&gt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>互換性なし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>)&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#d343f7&gt;(INCOMPATIBLE)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2065,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="D114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3580,11 +3613,17 @@
         <v>280</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="15"/>
+    <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>287</v>
+      </c>
       <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
+      <c r="C128" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="129" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32411963-EDF7-4FE1-8450-2BB3DEC424E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4934521C-2938-4ED5-B403-9E0E1B155CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="2400" windowWidth="23100" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="4155" windowWidth="23100" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -549,19 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>音声</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {0}</t>
-    </r>
-  </si>
-  <si>
     <t>loaded EffectSetting/{0}: {1} &gt; {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -754,10 +741,6 @@
   </si>
   <si>
     <t>bound {0} faction elements to religion id: {1}</t>
-  </si>
-  <si>
-    <t>preloaded sound {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cwl_log_stock_merge</t>
@@ -1596,6 +1579,33 @@
   </si>
   <si>
     <t>&lt;color=#d343f7&gt;(INCOMPATIBLE)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preloaded sound {0}, {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>音声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, {1}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2098,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2175,10 +2185,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2592,10 +2602,10 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2648,10 +2658,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2682,10 +2692,10 @@
         <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2718,10 +2728,10 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2784,10 +2794,10 @@
         <v>90</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2806,10 +2816,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2847,26 +2857,26 @@
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2875,10 +2885,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="9" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>169</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
@@ -2887,10 +2897,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2899,730 +2909,730 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A118" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="72" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4934521C-2938-4ED5-B403-9E0E1B155CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC02114-3D47-4EF9-BD97-2AB23CB9D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="4155" windowWidth="23100" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13545" yWindow="4530" windowWidth="33615" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="293">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,24 +545,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_log_loading_critical</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loaded EffectSetting/{0}: {1} &gt; {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-Please wait…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-しばらくお待ちください</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_processor_add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -620,37 +606,6 @@
   </si>
   <si>
     <t>added {0}, merge {1}, remove {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[CWL] {0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">データを処理中です
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>{1}
-{2}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CWL] {0} is processing data
-{1}
-{2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,24 +670,13 @@
     <t>cwl_ui_hover_detail</t>
   </si>
   <si>
-    <t>&lt;view details&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_ui_hover_close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cwl_ui_exception_analyze</t>
-  </si>
-  <si>
     <t>cwl_ui_exception_analyzing</t>
   </si>
   <si>
-    <t>&lt;extracting stackframes...&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>added processor {0} {1} {2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,11 +770,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;[RMB] close&gt;
-&lt;[MMB] do not show&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_warn_fuzzy_lookup</t>
   </si>
   <si>
@@ -876,167 +815,6 @@
   </si>
   <si>
     <t>auto gained element: {0}/{1} on {2}</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>詳細を表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>マウスの右ボタン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>閉じる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;
-&lt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>マウスの中ボタン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>閉じて今後表示しない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>マウスを乗せて</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>詳細を表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>スタックフレーム分析中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>…&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;[Mouse Hover] view details&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cwl_warn_drama_id_collision</t>
@@ -1223,10 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thanks for using CWL &lt;color=#21a366&gt;Stable&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>CWL</t>
     </r>
@@ -1264,10 +1038,6 @@
       </rPr>
       <t xml:space="preserve"> &gt;_&lt; &lt;color=#427ddc&gt;Nightly&lt;/color&gt;</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thanks for using CWL &lt;color=#427ddc&gt;Nightly&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1605,6 +1375,301 @@
         <charset val="134"/>
       </rPr>
       <t>, {1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=blue&gt;&lt;[Mouse Hover] view details&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=blue&gt;&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マウスを乗せて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>詳細を表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=blue&gt;&lt;[RMB] close&gt;
+&lt;[MMB] do not show&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=orange&gt;&lt;extracting stackframes...&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=orange&gt;&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>スタックフレーム分析中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/color&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=blue&gt;&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マウスの右ボタン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>閉じる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;
+&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マウスの中ボタン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>閉じて今後表示しない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are using CWL &lt;color=#21a366&gt;Stable&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are using CWL &lt;color=#427ddc&gt;Nightly&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CWL] {0} is processing data
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[CWL] {0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">データを処理中です
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_cache_gen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_cache_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cache blob count: {0}
+Cache total size: {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generated source cache to reduce load time.
+Next generation: {0} days
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成されたソースキャッシュは、ロード時間を短縮します。
+次の生成：{0}日
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キャッシュ内のブロブ数：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">{0}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>キャッシュの合計サイズ：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_ui_exception_copy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=purple&gt;&lt;[LMB] copy details&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;color=purple&gt;&lt;[LMB] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>詳細をコピー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/color&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1613,7 +1678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1743,6 +1808,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1764,7 +1836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1825,6 +1897,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2106,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2185,10 +2263,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2602,10 +2680,10 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2658,10 +2736,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2692,10 +2770,10 @@
         <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2728,10 +2806,10 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2794,10 +2872,10 @@
         <v>90</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2816,10 +2894,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
@@ -2857,26 +2935,26 @@
     </row>
     <row r="64" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2885,761 +2963,767 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>125</v>
+      <c r="C68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1" t="s">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+    <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1"/>
+      <c r="C72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1" t="s">
+      <c r="B73" s="1"/>
+      <c r="C73" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="10" customFormat="1" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>149</v>
+      <c r="C80" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>152</v>
+      <c r="C82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
+      <c r="B86" s="1"/>
+      <c r="C86" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="C87" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>167</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>283</v>
+        <v>160</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>170</v>
+      <c r="A94" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="1" t="s">
-        <v>173</v>
+      <c r="C95" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>177</v>
+      <c r="C97" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>234</v>
+      <c r="C99" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>235</v>
+        <v>179</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>236</v>
+        <v>181</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>237</v>
+      <c r="C103" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>193</v>
+      <c r="A105" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>238</v>
+      <c r="C105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
-        <v>196</v>
+      <c r="A106" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>197</v>
+      <c r="C106" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>222</v>
+      <c r="C107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>203</v>
+      <c r="A108" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
-        <v>206</v>
+      <c r="A109" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>207</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>225</v>
+        <v>201</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>216</v>
+        <v>203</v>
+      </c>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B114" s="1"/>
-      <c r="C114" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="C114" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B115" s="1"/>
-      <c r="C115" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C115" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B116" s="1"/>
-      <c r="C116" s="22" t="s">
-        <v>274</v>
+      <c r="C116" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>270</v>
+      <c r="A117" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="15" t="s">
-        <v>218</v>
+      <c r="A118" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="B118" s="15"/>
-      <c r="C118" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>220</v>
+      <c r="C118" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D119" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
-        <v>239</v>
+    </row>
+    <row r="121" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="B121" s="15"/>
-      <c r="C121" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+      <c r="C121" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="16" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="72" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="16" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="72" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="16" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
-        <v>257</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="B125" s="15"/>
-      <c r="C125" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>256</v>
+      <c r="C125" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
-        <v>259</v>
+      <c r="A126" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="19" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
-        <v>277</v>
+      <c r="A127" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="B127" s="15"/>
-      <c r="C127" s="19" t="s">
-        <v>280</v>
+      <c r="C127" s="15" t="s">
+        <v>270</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" s="15"/>
+      <c r="C128" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15" t="s">
+      <c r="B129" s="15"/>
+      <c r="C129" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="D129" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D128" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
     </row>
     <row r="130" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
@@ -3648,10 +3732,10 @@
       <c r="D130" s="15"/>
     </row>
     <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
@@ -3694,12 +3778,6 @@
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-    </row>
-    <row r="139" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC02114-3D47-4EF9-BD97-2AB23CB9D1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62E58CD-CD7A-4723-B312-456EFFAECBCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13545" yWindow="4530" windowWidth="33615" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="2760" windowWidth="33615" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="297">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1423,11 +1434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=blue&gt;&lt;[RMB] close&gt;
-&lt;[MMB] do not show&gt;&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=orange&gt;&lt;extracting stackframes...&gt;&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1460,81 +1466,6 @@
         <family val="3"/>
       </rPr>
       <t>&gt;&lt;/color&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;color=blue&gt;&lt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>マウスの右ボタン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>閉じる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;
-&lt;[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>マウスの中ボタン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>閉じて今後表示しない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1647,7 +1578,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=purple&gt;&lt;[LMB] copy details&gt;&lt;/color&gt;</t>
+    <t>&lt;color=blue&gt;&lt;[RMB] close&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=purple&gt;&lt;[LMB] copy details&gt;
+&lt;[MMB] do not show&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;color=blue&gt;&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マウスの右ボタン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>閉じる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/color&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1669,8 +1645,59 @@
         <rFont val="Cascadia Code"/>
         <family val="3"/>
       </rPr>
+      <t>&gt;
+&lt;[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マウスの中ボタン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>閉じて今後表示しない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
       <t>&gt;&lt;/color&gt;</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workbook-cache: {0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_workbook_cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwl_log_workbook_prefetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workbook-prefetch: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2186,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:D88"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2942,7 +2969,7 @@
         <v>232</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2954,7 +2981,7 @@
         <v>233</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2975,10 +3002,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25" x14ac:dyDescent="0.3">
@@ -3197,64 +3224,64 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="46.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>277</v>
+      <c r="C87" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>268</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -3703,81 +3730,93 @@
     </row>
     <row r="128" spans="1:4" ht="69.75" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="15"/>
+      <c r="A130" s="15" t="s">
+        <v>294</v>
+      </c>
       <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
+      <c r="C130" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="A131" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
     </row>
     <row r="133" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
     </row>
     <row r="134" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="A134" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
     </row>
     <row r="135" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
     </row>
     <row r="136" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
     </row>
     <row r="137" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
+      <c r="A137" s="15"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
     </row>
     <row r="138" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="A138" s="15"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE97F63-B51B-48C9-ABDD-A8CE11D271B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA408E-DC5A-40BB-9053-2B6479BDCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13485" yWindow="6315" windowWidth="33615" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3990" windowWidth="33615" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="298">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,14 +840,6 @@
   <si>
     <t>quest {0} is trying to use invalid id: "{1}"
 CWL replaced it with "{2}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CWL removed invalid actCombat ID: {0} from {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CWL removed invalid listAbility ID: {0} from {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1049,51 +1041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sequence of events (most recent on top):</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>エラーが発生した時点でのアプリの動作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>最も新しいものが一番上です</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t>):</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>removed {0} character</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1185,63 +1132,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Replaced invalid hobby {0} on character {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>assigned row based id: {1} to BGM: {0}
 explicit id is preferred to avoid BGM lookup collision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>キャラクター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> {1} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の無効な</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Cascadia Code"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">Hobby {0} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15.8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を削除しました</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1682,6 +1574,76 @@
   <si>
     <t>failed to create zone: {0}
 A zone already exists at {1}, {2}: {3}</t>
+  </si>
+  <si>
+    <t>//Sequence of events (most recent on top):</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>//エラーが発生した時点でのアプリの動作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最も新しいものが一番上です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15.8"/>
+        <color theme="1"/>
+        <rFont val="Cascadia Code"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <t>cwl_ui_debug_btn</t>
+  </si>
+  <si>
+    <t>CWL/Enable Debug</t>
+  </si>
+  <si>
+    <t>CWL/デバッグをオンにする</t>
+  </si>
+  <si>
+    <t>removed invalid actCombat '&lt;color=red&gt;{0}&lt;/color&gt;' from '{1}'</t>
+  </si>
+  <si>
+    <t>removed invalid listAbility '&lt;color=red&gt;{0}&lt;/color&gt;' from '{1}'</t>
+  </si>
+  <si>
+    <t>無効なactCombat '&lt;color=red&gt;{0}&lt;/color&gt;' を '{1}' から削除しました</t>
+  </si>
+  <si>
+    <t>無効なlistAbility '&lt;color=red&gt;{0}&lt;/color&gt;' を '{1}' から削除しました</t>
+  </si>
+  <si>
+    <t>無効なHobby '&lt;color=red&gt;{0}&lt;/color&gt;' を '{1}' から削除しました</t>
+  </si>
+  <si>
+    <t>removed invalid hobby '&lt;color=red&gt;{0}&lt;/color&gt;' from '{1}'</t>
   </si>
 </sst>
 </file>
@@ -2197,20 +2159,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD147"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:D129"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="0.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="91.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="122.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="156.140625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="0" style="2" hidden="1"/>
+    <col min="5" max="16384" width="0" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25">
@@ -2277,10 +2238,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25">
@@ -2664,7 +2625,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="93">
+    <row r="39" spans="1:4" ht="69.75">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -2676,7 +2637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="69.75">
+    <row r="40" spans="1:4" ht="46.5">
       <c r="A40" s="5" t="s">
         <v>13</v>
       </c>
@@ -2694,10 +2655,10 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5">
@@ -2750,10 +2711,10 @@
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1">
@@ -2779,15 +2740,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="232.5">
+    <row r="49" spans="1:4" ht="139.5">
       <c r="A49" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25">
@@ -2859,7 +2820,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="116.25">
+    <row r="56" spans="1:4" ht="69.75">
       <c r="A56" s="5" t="s">
         <v>86</v>
       </c>
@@ -2870,7 +2831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="69.75">
+    <row r="57" spans="1:4" ht="46.5">
       <c r="A57" s="5" t="s">
         <v>88</v>
       </c>
@@ -2892,7 +2853,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="46.5">
+    <row r="59" spans="1:4" ht="23.25">
       <c r="A59" s="5" t="s">
         <v>91</v>
       </c>
@@ -2908,10 +2869,10 @@
         <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5">
@@ -2949,26 +2910,26 @@
     </row>
     <row r="64" spans="1:4" ht="23.25">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25">
       <c r="A65" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25">
@@ -2977,10 +2938,10 @@
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5">
@@ -2989,10 +2950,10 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25">
@@ -3019,16 +2980,16 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="10" customFormat="1" ht="69.75">
+    <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5">
       <c r="A70" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25">
@@ -3169,10 +3130,10 @@
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25">
@@ -3181,22 +3142,22 @@
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="51">
       <c r="A84" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="25.5">
@@ -3205,22 +3166,22 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25">
       <c r="A86" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25">
@@ -3241,10 +3202,10 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25">
@@ -3253,10 +3214,10 @@
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25">
@@ -3316,7 +3277,7 @@
         <v>167</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25">
@@ -3328,7 +3289,7 @@
         <v>169</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25">
@@ -3340,10 +3301,10 @@
         <v>171</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="23.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="23.25">
       <c r="A97" s="1" t="s">
         <v>172</v>
       </c>
@@ -3355,7 +3316,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="23.25">
+    <row r="98" spans="1:4" ht="23.25">
       <c r="A98" s="1" t="s">
         <v>174</v>
       </c>
@@ -3364,26 +3325,22 @@
         <v>175</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="23.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="23.25">
       <c r="A99" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="25" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" ht="23.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="23.25">
       <c r="A100" s="1" t="s">
         <v>183</v>
       </c>
@@ -3395,7 +3352,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="23.25">
+    <row r="101" spans="1:4" ht="23.25">
       <c r="A101" s="1" t="s">
         <v>177</v>
       </c>
@@ -3404,10 +3361,10 @@
         <v>178</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="23.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="23.25">
       <c r="A102" s="12" t="s">
         <v>179</v>
       </c>
@@ -3419,7 +3376,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="23.25">
+    <row r="103" spans="1:4" ht="23.25">
       <c r="A103" s="1" t="s">
         <v>182</v>
       </c>
@@ -3431,7 +3388,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="23.25">
+    <row r="104" spans="1:4" ht="23.25">
       <c r="A104" s="1" t="s">
         <v>186</v>
       </c>
@@ -3443,7 +3400,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="23.25">
+    <row r="105" spans="1:4" ht="23.25">
       <c r="A105" s="5" t="s">
         <v>189</v>
       </c>
@@ -3455,31 +3412,31 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="23.25">
+    <row r="106" spans="1:4" ht="23.25">
       <c r="A106" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="69.75">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="69.75">
       <c r="A107" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="23.25">
+    <row r="108" spans="1:4" ht="23.25">
       <c r="A108" s="5" t="s">
         <v>193</v>
       </c>
@@ -3491,64 +3448,64 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="23.25">
+    <row r="109" spans="1:4" ht="23.25">
       <c r="A109" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="23.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="23.25">
       <c r="A110" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="46.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="46.5">
       <c r="A111" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="25.5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="25.5">
       <c r="A112" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25">
       <c r="A113" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25">
@@ -3569,10 +3526,10 @@
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="15" t="s">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="23.25">
@@ -3581,173 +3538,179 @@
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="15" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.5">
       <c r="A117" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="46.5">
       <c r="A118" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25">
       <c r="A119" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="74.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="48.75">
       <c r="A120" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="46.5">
       <c r="A121" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="25.5">
       <c r="A122" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="19" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="25.5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="23.25">
       <c r="A123" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B123" s="15"/>
-      <c r="C123" s="19" t="s">
-        <v>252</v>
+      <c r="C123" s="15" t="s">
+        <v>296</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="25.5">
       <c r="A124" s="15" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="69.75">
       <c r="A125" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="23" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="51">
       <c r="A126" s="15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="24" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25">
       <c r="A127" s="15" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25">
       <c r="A128" s="15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="46.5">
       <c r="A129" s="12" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25">
-      <c r="A130" s="15"/>
+      <c r="A130" s="15" t="s">
+        <v>289</v>
+      </c>
       <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
+      <c r="C130" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="23.25">
       <c r="A131" s="15"/>
@@ -3761,27 +3724,6 @@
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
     </row>
-    <row r="133" spans="1:4" ht="23.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-    </row>
-    <row r="134" spans="1:4" ht="23.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-    </row>
-    <row r="135" spans="1:4" ht="23.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-    </row>
-    <row r="145" s="2" customFormat="1"/>
-    <row r="146" s="2" customFormat="1"/>
-    <row r="147" s="2" customFormat="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">
     <sortCondition ref="A35"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CA408E-DC5A-40BB-9053-2B6479BDCF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF1AF27-C77E-4B13-8DC7-369BAF35902E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3990" windowWidth="33615" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13635" yWindow="3495" windowWidth="26220" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1640,10 +1640,10 @@
     <t>無効なlistAbility '&lt;color=red&gt;{0}&lt;/color&gt;' を '{1}' から削除しました</t>
   </si>
   <si>
-    <t>無効なHobby '&lt;color=red&gt;{0}&lt;/color&gt;' を '{1}' から削除しました</t>
-  </si>
-  <si>
-    <t>removed invalid hobby '&lt;color=red&gt;{0}&lt;/color&gt;' from '{1}'</t>
+    <t>removed invalid {0} '&lt;color=red&gt;{1}&lt;/color&gt;' from '{2}'</t>
+  </si>
+  <si>
+    <t>無効な {0} '&lt;color=red&gt;{1}&lt;/color&gt;' を '{2}' から削除しました</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="B111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3622,10 +3622,10 @@
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D123" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="25.5">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF1AF27-C77E-4B13-8DC7-369BAF35902E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950353E-132A-42D0-92EE-BB3A15D6915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="3495" windowWidth="26220" windowHeight="15975" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15810" yWindow="4200" windowWidth="25710" windowHeight="16095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="303">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1644,6 +1644,22 @@
   </si>
   <si>
     <t>無効な {0} '&lt;color=red&gt;{1}&lt;/color&gt;' を '{2}' から削除しました</t>
+  </si>
+  <si>
+    <t>cwl_ui_export_zone</t>
+  </si>
+  <si>
+    <t>CWL/Export Zone</t>
+  </si>
+  <si>
+    <t>CWL/ゾーンを書き出す</t>
+  </si>
+  <si>
+    <t>cwl_relocate_zone</t>
+  </si>
+  <si>
+    <t>relocated zone &gt; {0}:{1}
+&gt; {2}</t>
   </si>
 </sst>
 </file>
@@ -2161,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3713,16 +3729,28 @@
       </c>
     </row>
     <row r="131" spans="1:4" ht="23.25">
-      <c r="A131" s="15"/>
+      <c r="A131" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-    </row>
-    <row r="132" spans="1:4" ht="23.25">
-      <c r="A132" s="15"/>
+      <c r="C131" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="46.5">
+      <c r="A132" s="15" t="s">
+        <v>301</v>
+      </c>
       <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
+      <c r="C132" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5950353E-132A-42D0-92EE-BB3A15D6915D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E32C7-4650-4C58-97BF-87017CFC4481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="4200" windowWidth="25710" windowHeight="16095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="735" windowWidth="30045" windowHeight="16095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="326">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1572,10 +1572,6 @@
     <t>cwl_warn_exist_zone</t>
   </si>
   <si>
-    <t>failed to create zone: {0}
-A zone already exists at {1}, {2}: {3}</t>
-  </si>
-  <si>
     <t>//Sequence of events (most recent on top):</t>
   </si>
   <si>
@@ -1660,13 +1656,91 @@
   <si>
     <t>relocated zone &gt; {0}:{1}
 &gt; {2}</t>
+  </si>
+  <si>
+    <t>cwl_log_csc_roslyn</t>
+  </si>
+  <si>
+    <t>using roslyn compiler {0}</t>
+  </si>
+  <si>
+    <t>cwl_log_csc_package</t>
+  </si>
+  <si>
+    <t>compiling package {0} from {1}</t>
+  </si>
+  <si>
+    <t>compiling script
+{0}</t>
+  </si>
+  <si>
+    <t>cwl_log_csc_eval</t>
+  </si>
+  <si>
+    <t>cwl_error_cs_disabled</t>
+  </si>
+  <si>
+    <t>script compiler is disabled</t>
+  </si>
+  <si>
+    <t>cwl_log_csc_scripts</t>
+  </si>
+  <si>
+    <t>compiling {0} script files [{1}]</t>
+  </si>
+  <si>
+    <t>cwl_error_csc_diag</t>
+  </si>
+  <si>
+    <t>failed to compile '{0}':
+{1}</t>
+  </si>
+  <si>
+    <t>cwl_error_cs_frozen</t>
+  </si>
+  <si>
+    <t>script state '{0}' is frozen</t>
+  </si>
+  <si>
+    <t>Roslyn コンパイラを使用しています {0}</t>
+  </si>
+  <si>
+    <t>{1} からパッケージ {0} をコンパイルしています</t>
+  </si>
+  <si>
+    <t>スクリプトをコンパイルしています
+{0}</t>
+  </si>
+  <si>
+    <t>スクリプトコンパイラは無効化されています</t>
+  </si>
+  <si>
+    <t>{1} 個のスクリプトファイルをコンパイルしています [{0}]</t>
+  </si>
+  <si>
+    <t>「{0}」のコンパイルに失敗しました:
+{1}</t>
+  </si>
+  <si>
+    <t>スクリプト状態「{0}」は凍結されています</t>
+  </si>
+  <si>
+    <t>failed to create zone: {0}
+zone already exists at {1}, {2}: {3}</t>
+  </si>
+  <si>
+    <t>cwl_warn_drama_call_ex</t>
+  </si>
+  <si>
+    <t>call failure: '{0}'
+{1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1803,6 +1877,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15.8"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1824,7 +1904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1893,6 +1973,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2175,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3542,10 +3625,10 @@
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="23.25">
@@ -3554,10 +3637,10 @@
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.5">
@@ -3626,10 +3709,10 @@
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25">
@@ -3638,10 +3721,10 @@
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="25.5">
@@ -3710,47 +3793,191 @@
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="16" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25">
       <c r="A130" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="23.25">
       <c r="A131" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="46.5">
       <c r="A132" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="3" t="s">
+      <c r="D132" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="23.25">
+      <c r="A133" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>302</v>
-      </c>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="23.25">
+      <c r="A134" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="46.5">
+      <c r="A135" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B135" s="15"/>
+      <c r="C135" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="23.25">
+      <c r="A136" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="23.25">
+      <c r="A137" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137" s="15"/>
+      <c r="C137" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="46.5">
+      <c r="A138" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B138" s="15"/>
+      <c r="C138" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="23.25">
+      <c r="A139" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="46.5">
+      <c r="A140" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B140" s="15"/>
+      <c r="C140" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="23.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+    </row>
+    <row r="142" spans="1:4" ht="23.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+    </row>
+    <row r="143" spans="1:4" ht="23.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+    </row>
+    <row r="144" spans="1:4" ht="23.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+    </row>
+    <row r="145" spans="1:4" ht="23.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+    </row>
+    <row r="146" spans="1:4" ht="23.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+    </row>
+    <row r="147" spans="1:4" ht="23.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+    </row>
+    <row r="148" spans="1:4" ht="23.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E32C7-4650-4C58-97BF-87017CFC4481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796D8D8-4C97-4E96-A159-F3C1160B90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1230" yWindow="735" windowWidth="30045" windowHeight="16095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1661,9 +1661,6 @@
     <t>cwl_log_csc_roslyn</t>
   </si>
   <si>
-    <t>using roslyn compiler {0}</t>
-  </si>
-  <si>
     <t>cwl_log_csc_package</t>
   </si>
   <si>
@@ -1702,9 +1699,6 @@
     <t>script state '{0}' is frozen</t>
   </si>
   <si>
-    <t>Roslyn コンパイラを使用しています {0}</t>
-  </si>
-  <si>
     <t>{1} からパッケージ {0} をコンパイルしています</t>
   </si>
   <si>
@@ -1734,6 +1728,12 @@
   <si>
     <t>call failure: '{0}'
 {1}</t>
+  </si>
+  <si>
+    <t>using ℛ* compiler {0}</t>
+  </si>
+  <si>
+    <t>ℛ* コンパイラを使用しています {0}</t>
   </si>
 </sst>
 </file>
@@ -2258,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3793,10 +3793,10 @@
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25">
@@ -3841,94 +3841,94 @@
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="15" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="23.25">
       <c r="A134" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="46.5">
       <c r="A135" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="23.25">
       <c r="A136" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="23.25">
       <c r="A137" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="46.5">
       <c r="A138" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B138" s="15"/>
       <c r="C138" s="16" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="23.25">
       <c r="A139" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="46.5">
       <c r="A140" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="23.25">
@@ -3972,12 +3972,6 @@
       <c r="B147" s="15"/>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
-    </row>
-    <row r="148" spans="1:4" ht="23.25">
-      <c r="A148" s="15"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D35">

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5796D8D8-4C97-4E96-A159-F3C1160B90CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83994B7-D7A5-4543-B924-36B0D5EC46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="735" windowWidth="30045" windowHeight="16095" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="735" windowWidth="30675" windowHeight="17520" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="329">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1734,6 +1734,17 @@
   </si>
   <si>
     <t>ℛ* コンパイラを使用しています {0}</t>
+  </si>
+  <si>
+    <t>cwl_ui_csc_changed</t>
+  </si>
+  <si>
+    <t>script changes present from mod '{0}'
+use command 'cwl.cs.recompile' when ready</t>
+  </si>
+  <si>
+    <t>モッド「{0}」のスクリプトに変更があります
+準備ができたら 'cwl.cs.recompile' コマンドを使用してください</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2272,7 @@
   <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -3931,11 +3942,17 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="23.25">
-      <c r="A141" s="15"/>
+    <row r="141" spans="1:4" ht="46.5">
+      <c r="A141" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="B141" s="15"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
+      <c r="C141" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="142" spans="1:4" ht="23.25">
       <c r="A142" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83994B7-D7A5-4543-B924-36B0D5EC46F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23882A57-5927-495F-BF40-F507CF892B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="735" windowWidth="30675" windowHeight="17520" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="2130" windowWidth="37395" windowHeight="17520" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="332">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1745,6 +1745,21 @@
   <si>
     <t>モッド「{0}」のスクリプトに変更があります
 準備ができたら 'cwl.cs.recompile' コマンドを使用してください</t>
+  </si>
+  <si>
+    <t>cwl_ui_cs_ready</t>
+  </si>
+  <si>
+    <t>Roslyn スクリプトコンパイラが準備完了しました
+使用方法：
+  cwl.cs.eval &lt;ここに任意の C# コードを記述&gt;
+  cwl.cs.file &lt;C# スクリプトファイルへのパス&gt;</t>
+  </si>
+  <si>
+    <t>Roslyn script compiler ready
+usage:
+  cwl.cs.eval &lt;write any C# code here&gt;
+  cwl.cs.file &lt;path to C# script file&gt;</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
@@ -3954,11 +3969,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="23.25">
-      <c r="A142" s="15"/>
+    <row r="142" spans="1:4" ht="93">
+      <c r="A142" s="15" t="s">
+        <v>329</v>
+      </c>
       <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
+      <c r="C142" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="23.25">
       <c r="A143" s="15"/>

--- a/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
+++ b/CustomWhateverLoader/LangMod/EN/cwl_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\GameMods\Elin.Plugins\CustomWhateverLoader\LangMod\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23882A57-5927-495F-BF40-F507CF892B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E51B1D4-0D6F-4CC9-9779-152D97027331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4725" yWindow="2130" windowWidth="37395" windowHeight="17520" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="336">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,14 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>generated default meta for sound {0}</t>
-  </si>
-  <si>
-    <t>failed to load sound {0}
-{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_sound_loaded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +294,6 @@
 {0}</t>
   </si>
   <si>
-    <t>failed to merge god_talk, {0}
-{1}</t>
-  </si>
-  <si>
     <t>loaded {0} sound {1} {2}Hz x{3}, {4}s</t>
   </si>
   <si>
@@ -319,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maybe {0, 2}: {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>migration cancelled, sheet has already been migrated for this version: {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,18 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>added equipment: {0}, {1} to {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added thing: {0}, x{1} to {2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skipped adventurer: {0}, already exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_mat_color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>added adventurer: {0} to {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>this is the last time CWL warns about it, the rest will be silently ignored to reduce log spam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,15 +400,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skipped character: {0}, already exists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cwl_log_added_cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>added character: {0} to {1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1760,6 +1720,50 @@
 usage:
   cwl.cs.eval &lt;write any C# code here&gt;
   cwl.cs.file &lt;path to C# script file&gt;</t>
+  </si>
+  <si>
+    <t>maybe {0, 2} '{1}'</t>
+  </si>
+  <si>
+    <t>internal failure: {0}</t>
+  </si>
+  <si>
+    <t>failed to load sound '{0}'
+{1}</t>
+  </si>
+  <si>
+    <t>failed to merge god_talk '{0}'
+{1}</t>
+  </si>
+  <si>
+    <t>added adventurer '{0}' to '{1}'</t>
+  </si>
+  <si>
+    <t>added character '{0}' to '{1}'</t>
+  </si>
+  <si>
+    <t>added equipment '{0}' {1} to '{2}'</t>
+  </si>
+  <si>
+    <t>added thing '{0}', x{1} to '{2}'</t>
+  </si>
+  <si>
+    <t>added thing '{0}' x{1} to '{2}'</t>
+  </si>
+  <si>
+    <t>skipped character '{0}', already exists</t>
+  </si>
+  <si>
+    <t>skipped adventurer '{0}', already exists</t>
+  </si>
+  <si>
+    <t>skipped adventurer: '{0}', already exists</t>
+  </si>
+  <si>
+    <t>skipped character: '{0}', already exists</t>
+  </si>
+  <si>
+    <t>generated default meta for sound '{0}'</t>
   </si>
 </sst>
 </file>
@@ -2286,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -2339,10 +2343,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.25">
@@ -2363,81 +2367,81 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.5">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="46.5">
       <c r="A9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.25">
@@ -2446,22 +2450,22 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>327</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>98</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.25">
@@ -2470,10 +2474,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.25">
@@ -2482,46 +2486,46 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25">
@@ -2530,10 +2534,10 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="46.5">
@@ -2542,44 +2546,44 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25">
@@ -2588,10 +2592,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25">
@@ -2600,142 +2604,142 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="46.5">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="46.5">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="69.75">
@@ -2744,10 +2748,10 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="69.75">
@@ -2756,10 +2760,10 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="46.5">
@@ -2780,1205 +2784,1205 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="46.5">
       <c r="A42" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="46.5">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25">
       <c r="A44" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25">
       <c r="A45" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="93">
       <c r="A46" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B46"/>
       <c r="C46" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="79.5" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B47"/>
       <c r="C47" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25">
       <c r="A48" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="139.5">
       <c r="A49" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25">
       <c r="A50" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25">
       <c r="A51" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="46.5">
       <c r="A54" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25">
       <c r="A55" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="69.75">
       <c r="A56" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="46.5">
       <c r="A57" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="23.25">
       <c r="A59" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25">
       <c r="A60" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="46.5">
       <c r="A61" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25">
       <c r="A62" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25">
       <c r="A63" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25">
       <c r="A64" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25">
       <c r="A65" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="9" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="46.5">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="23.25">
       <c r="A68" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="23.25">
       <c r="A69" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="10" customFormat="1" ht="46.5">
       <c r="A70" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="10" customFormat="1" ht="23.25">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="10" customFormat="1" ht="23.25">
       <c r="A72" s="4" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="10" customFormat="1" ht="46.5">
       <c r="A73" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="10" customFormat="1" ht="23.25">
       <c r="A74" s="4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="10" customFormat="1" ht="23.25">
       <c r="A75" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="10" customFormat="1" ht="23.25">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="46.5">
       <c r="A77" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="46.5">
       <c r="A78" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25">
       <c r="A80" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="46.5">
       <c r="A81" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25">
       <c r="A82" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25">
       <c r="A83" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="51">
       <c r="A84" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="25.5">
       <c r="A85" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25">
       <c r="A86" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25">
       <c r="A87" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25">
       <c r="A88" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25">
       <c r="A89" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25">
       <c r="A90" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25">
       <c r="A91" s="12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25">
       <c r="A92" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25">
       <c r="A93" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25">
       <c r="A94" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25">
       <c r="A95" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25">
       <c r="A96" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25">
       <c r="A97" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25">
       <c r="A98" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25">
       <c r="A99" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="25" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25">
       <c r="A100" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="9" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25">
       <c r="A101" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25">
       <c r="A102" s="12" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25">
       <c r="A103" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="9" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25">
       <c r="A104" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25">
       <c r="A105" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25">
       <c r="A106" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="69.75">
       <c r="A107" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25">
       <c r="A108" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25">
       <c r="A109" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B109" s="15"/>
       <c r="C109" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25">
       <c r="A110" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="20" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="46.5">
       <c r="A111" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="25.5">
       <c r="A112" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="22" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25">
       <c r="A113" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="21" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25">
       <c r="A114" s="15" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="17" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25">
       <c r="A115" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="15" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="23.25">
       <c r="A116" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="15" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="25.5">
       <c r="A117" s="15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="18" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="46.5">
       <c r="A118" s="5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B118" s="15"/>
       <c r="C118" s="16" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25">
       <c r="A119" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B119" s="15"/>
       <c r="C119" s="16" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="48.75">
       <c r="A120" s="5" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B120" s="15"/>
       <c r="C120" s="16" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="46.5">
       <c r="A121" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B121" s="15"/>
       <c r="C121" s="16" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="25.5">
       <c r="A122" s="15" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B122" s="15"/>
       <c r="C122" s="19" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25">
       <c r="A123" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B123" s="15"/>
       <c r="C123" s="15" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="25.5">
       <c r="A124" s="15" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B124" s="15"/>
       <c r="C124" s="15" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="69.75">
       <c r="A125" s="15" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B125" s="15"/>
       <c r="C125" s="23" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="51">
       <c r="A126" s="15" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B126" s="15"/>
       <c r="C126" s="24" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25">
       <c r="A127" s="15" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25">
       <c r="A128" s="15" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B128" s="15"/>
       <c r="C128" s="15" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="46.5">
       <c r="A129" s="12" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B129" s="15"/>
       <c r="C129" s="16" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25">
       <c r="A130" s="15" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B130" s="15"/>
       <c r="C130" s="15" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="23.25">
       <c r="A131" s="15" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="15" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="46.5">
       <c r="A132" s="15" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B132" s="15"/>
       <c r="C132" s="16" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="23.25">
       <c r="A133" s="15" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B133" s="15"/>
       <c r="C133" s="15" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="23.25">
       <c r="A134" s="15" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B134" s="15"/>
       <c r="C134" s="15" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="46.5">
       <c r="A135" s="15" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B135" s="15"/>
       <c r="C135" s="16" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="23.25">
       <c r="A136" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B136" s="15"/>
       <c r="C136" s="15" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="23.25">
       <c r="A137" s="15" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B137" s="15"/>
       <c r="C137" s="16" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="46.5">
       <c r="A138" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B138" s="15"/>
       <c r="C138" s="16" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D138" s="16" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="23.25">
       <c r="A139" s="4" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B139" s="15"/>
       <c r="C139" s="15" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="46.5">
       <c r="A140" s="26" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B140" s="15"/>
       <c r="C140" s="16" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="46.5">
       <c r="A141" s="15" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B141" s="15"/>
       <c r="C141" s="16" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="93">
       <c r="A142" s="15" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B142" s="15"/>
       <c r="C142" s="16" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="23.25">
